--- a/capiq_data/in_process_data/IQ276703.xlsx
+++ b/capiq_data/in_process_data/IQ276703.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ACD611-993C-4944-A007-54D5C6561C6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEC6B40-38CC-4BEE-8FF2-3A3FD8660895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"f2374590-25be-474f-a5f6-0b7385c91a17"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"970edf20-63d1-4ca3-b22e-ca45764995bb"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>24.79</v>
+        <v>47.843000000000004</v>
       </c>
       <c r="D2">
-        <v>851.572</v>
+        <v>705.88800000000003</v>
       </c>
       <c r="E2">
-        <v>423.17500000000001</v>
+        <v>390.36900000000003</v>
       </c>
       <c r="F2">
-        <v>326.90699999999998</v>
+        <v>304.31200000000001</v>
       </c>
       <c r="G2">
-        <v>971.86</v>
+        <v>671.61</v>
       </c>
       <c r="H2">
-        <v>1273.9839999999999</v>
+        <v>971.029</v>
       </c>
       <c r="I2">
-        <v>93.69</v>
+        <v>51.073</v>
       </c>
       <c r="J2">
-        <v>1.6559999999999999</v>
+        <v>2.5409999999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>408.46</v>
+        <v>237.15600000000001</v>
       </c>
       <c r="O2">
-        <v>439.613</v>
+        <v>252.49</v>
       </c>
       <c r="P2">
-        <v>1.7789999999999999</v>
+        <v>3.7639999999999998</v>
       </c>
       <c r="Q2">
-        <v>4.0810000000000004</v>
+        <v>-21.242000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>10400</v>
+        <v>8300</v>
       </c>
       <c r="T2">
-        <v>834.37099999999998</v>
+        <v>718.53899999999999</v>
       </c>
       <c r="U2">
-        <v>315.137</v>
+        <v>239.19200000000001</v>
       </c>
       <c r="V2">
-        <v>74.41</v>
+        <v>64.373000000000005</v>
       </c>
       <c r="W2">
-        <v>-18.978999999999999</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-54.104999999999997</v>
+        <v>-59.09</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>24.79</v>
+        <v>47.843000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>26.704999999999998</v>
+        <v>47.557000000000002</v>
       </c>
       <c r="D3">
-        <v>880.86900000000003</v>
+        <v>719.27300000000002</v>
       </c>
       <c r="E3">
-        <v>466.54</v>
+        <v>391.62099999999998</v>
       </c>
       <c r="F3">
-        <v>338.089</v>
+        <v>310.98599999999999</v>
       </c>
       <c r="G3">
-        <v>984.64099999999996</v>
+        <v>660.80899999999997</v>
       </c>
       <c r="H3">
-        <v>1290.595</v>
+        <v>967.67700000000002</v>
       </c>
       <c r="I3">
-        <v>110.80200000000001</v>
+        <v>37.253999999999998</v>
       </c>
       <c r="J3">
-        <v>1.6259999999999999</v>
+        <v>2.5259999999999998</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +972,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.03</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="N3">
-        <v>420.43799999999999</v>
+        <v>231.62200000000001</v>
       </c>
       <c r="O3">
-        <v>450.63600000000002</v>
+        <v>245.745</v>
       </c>
       <c r="P3">
-        <v>1.7490000000000001</v>
+        <v>3.69</v>
       </c>
       <c r="Q3">
-        <v>-33.307000000000002</v>
+        <v>-17.445</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>839.95899999999995</v>
+        <v>721.93200000000002</v>
       </c>
       <c r="U3">
-        <v>281.83</v>
+        <v>221.74700000000001</v>
       </c>
       <c r="V3">
-        <v>18.952000000000002</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="W3">
-        <v>-20.294</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-41.009</v>
+        <v>-57.706000000000003</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>26.704999999999998</v>
+        <v>47.557000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>36.424999999999997</v>
+        <v>37.716000000000001</v>
       </c>
       <c r="D4">
-        <v>937.96600000000001</v>
+        <v>648.404</v>
       </c>
       <c r="E4">
-        <v>495.38099999999997</v>
+        <v>353.55</v>
       </c>
       <c r="F4">
-        <v>372.28800000000001</v>
+        <v>272.76299999999998</v>
       </c>
       <c r="G4">
-        <v>995.11</v>
+        <v>688.04200000000003</v>
       </c>
       <c r="H4">
-        <v>1301.7809999999999</v>
+        <v>1002.596</v>
       </c>
       <c r="I4">
-        <v>110.973</v>
+        <v>37.103999999999999</v>
       </c>
       <c r="J4">
-        <v>1.6</v>
+        <v>2.5110000000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>453.22800000000001</v>
+        <v>204.804</v>
       </c>
       <c r="O4">
-        <v>485.15100000000001</v>
+        <v>222.93700000000001</v>
       </c>
       <c r="P4">
-        <v>1.7190000000000001</v>
+        <v>3.6680000000000001</v>
       </c>
       <c r="Q4">
-        <v>-20.759</v>
+        <v>56.595999999999997</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>816.63</v>
+        <v>779.65899999999999</v>
       </c>
       <c r="U4">
-        <v>261.07100000000003</v>
+        <v>278.34300000000002</v>
       </c>
       <c r="V4">
-        <v>68.930000000000007</v>
+        <v>77.421999999999997</v>
       </c>
       <c r="W4">
-        <v>-20.013000000000002</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-76.266000000000005</v>
+        <v>5.8579999999999997</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>36.424999999999997</v>
+        <v>37.716000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>44.167999999999999</v>
+        <v>23.146999999999998</v>
       </c>
       <c r="D5">
-        <v>984.66800000000001</v>
+        <v>574.69000000000005</v>
       </c>
       <c r="E5">
-        <v>516.04700000000003</v>
+        <v>332.55200000000002</v>
       </c>
       <c r="F5">
-        <v>391.90300000000002</v>
+        <v>230.565</v>
       </c>
       <c r="G5">
-        <v>1004.992</v>
+        <v>691.63300000000004</v>
       </c>
       <c r="H5">
-        <v>1308.5350000000001</v>
+        <v>1007.261</v>
       </c>
       <c r="I5">
-        <v>120.89</v>
+        <v>41.341999999999999</v>
       </c>
       <c r="J5">
-        <v>1.5720000000000001</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>483.39800000000002</v>
+        <v>212.678</v>
       </c>
       <c r="O5">
-        <v>516.58500000000004</v>
+        <v>228.095</v>
       </c>
       <c r="P5">
-        <v>1.6870000000000001</v>
+        <v>2.7570000000000001</v>
       </c>
       <c r="Q5">
-        <v>-18.344999999999999</v>
+        <v>22.785</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>791.95</v>
+        <v>779.16600000000005</v>
       </c>
       <c r="U5">
-        <v>242.726</v>
+        <v>301.12799999999999</v>
       </c>
       <c r="V5">
-        <v>71.786000000000001</v>
+        <v>80.417000000000002</v>
       </c>
       <c r="W5">
-        <v>-19.716999999999999</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-66.866</v>
+        <v>-36.749000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>44.167999999999999</v>
+        <v>23.146999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>42.624000000000002</v>
+        <v>12.686999999999999</v>
       </c>
       <c r="D6">
-        <v>973.47299999999996</v>
+        <v>510.483</v>
       </c>
       <c r="E6">
-        <v>493.327</v>
+        <v>272.88600000000002</v>
       </c>
       <c r="F6">
-        <v>387.322</v>
+        <v>202.26400000000001</v>
       </c>
       <c r="G6">
-        <v>1006.678</v>
+        <v>686.00599999999997</v>
       </c>
       <c r="H6">
-        <v>1311.836</v>
+        <v>994.16200000000003</v>
       </c>
       <c r="I6">
-        <v>117.596</v>
+        <v>33.384</v>
       </c>
       <c r="J6">
-        <v>1.5449999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>473.00099999999998</v>
+        <v>176.64699999999999</v>
       </c>
       <c r="O6">
-        <v>511.33100000000002</v>
+        <v>188.46600000000001</v>
       </c>
       <c r="P6">
-        <v>1.6559999999999999</v>
+        <v>2.6819999999999999</v>
       </c>
       <c r="Q6">
-        <v>36.61</v>
+        <v>45.64</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>11300</v>
+        <v>6300</v>
       </c>
       <c r="T6">
-        <v>800.505</v>
+        <v>805.69600000000003</v>
       </c>
       <c r="U6">
-        <v>279.33600000000001</v>
+        <v>346.76799999999997</v>
       </c>
       <c r="V6">
-        <v>96.647999999999996</v>
+        <v>51.591000000000001</v>
       </c>
       <c r="W6">
-        <v>-20.279</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-41.835999999999999</v>
+        <v>5.0380000000000003</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>42.624000000000002</v>
+        <v>12.686999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>48.334000000000003</v>
+        <v>9.1120000000000001</v>
       </c>
       <c r="D7">
-        <v>1015.444</v>
+        <v>468.471</v>
       </c>
       <c r="E7">
-        <v>523.45299999999997</v>
+        <v>252.751</v>
       </c>
       <c r="F7">
-        <v>402.08300000000003</v>
+        <v>184.90100000000001</v>
       </c>
       <c r="G7">
-        <v>1006.549</v>
+        <v>728.04300000000001</v>
       </c>
       <c r="H7">
-        <v>1308.6369999999999</v>
+        <v>1029.4770000000001</v>
       </c>
       <c r="I7">
-        <v>110.247</v>
+        <v>35.511000000000003</v>
       </c>
       <c r="J7">
-        <v>1.516</v>
+        <v>2.464</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-3.2000000000000001E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="N7">
-        <v>454.911</v>
+        <v>181.31899999999999</v>
       </c>
       <c r="O7">
-        <v>492.95699999999999</v>
+        <v>193.45699999999999</v>
       </c>
       <c r="P7">
-        <v>1.6279999999999999</v>
+        <v>2.665</v>
       </c>
       <c r="Q7">
-        <v>-34.883000000000003</v>
+        <v>32.021999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>815.68</v>
+        <v>836.02</v>
       </c>
       <c r="U7">
-        <v>244.453</v>
+        <v>378.79</v>
       </c>
       <c r="V7">
-        <v>23.213999999999999</v>
+        <v>36.249000000000002</v>
       </c>
       <c r="W7">
-        <v>-21.015999999999998</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-48.923000000000002</v>
+        <v>7.2549999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>48.334000000000003</v>
+        <v>9.1120000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>45.329000000000001</v>
+        <v>3.1949999999999998</v>
       </c>
       <c r="D8">
-        <v>1028.383</v>
+        <v>473.12099999999998</v>
       </c>
       <c r="E8">
-        <v>531.84799999999996</v>
+        <v>245.35900000000001</v>
       </c>
       <c r="F8">
-        <v>415.303</v>
+        <v>183.11799999999999</v>
       </c>
       <c r="G8">
-        <v>1040.664</v>
+        <v>719.84799999999996</v>
       </c>
       <c r="H8">
-        <v>1344.3989999999999</v>
+        <v>1020.902</v>
       </c>
       <c r="I8">
-        <v>123.706</v>
+        <v>48.238</v>
       </c>
       <c r="J8">
-        <v>1.4870000000000001</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>496.31700000000001</v>
+        <v>191.84</v>
       </c>
       <c r="O8">
-        <v>535.03899999999999</v>
+        <v>201.441</v>
       </c>
       <c r="P8">
-        <v>1.601</v>
+        <v>2.6589999999999998</v>
       </c>
       <c r="Q8">
-        <v>14.125</v>
+        <v>-5.3639999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>809.36</v>
+        <v>819.46100000000001</v>
       </c>
       <c r="U8">
-        <v>258.57799999999997</v>
+        <v>373.42599999999999</v>
       </c>
       <c r="V8">
-        <v>92.072000000000003</v>
+        <v>70.417000000000002</v>
       </c>
       <c r="W8">
-        <v>-20.858000000000001</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-56.1</v>
+        <v>-24.876000000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>45.329000000000001</v>
+        <v>3.1949999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>57.66</v>
+        <v>-3.0720000000000001</v>
       </c>
       <c r="D9">
-        <v>1033.173</v>
+        <v>484.77800000000002</v>
       </c>
       <c r="E9">
-        <v>556.59</v>
+        <v>238.79300000000001</v>
       </c>
       <c r="F9">
-        <v>415.24900000000002</v>
+        <v>175.43600000000001</v>
       </c>
       <c r="G9">
-        <v>1104.8240000000001</v>
+        <v>646.46299999999997</v>
       </c>
       <c r="H9">
-        <v>1406.7070000000001</v>
+        <v>947.66399999999999</v>
       </c>
       <c r="I9">
-        <v>141.90899999999999</v>
+        <v>45.335000000000001</v>
       </c>
       <c r="J9">
-        <v>1.458</v>
+        <v>2.431</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>532.64200000000005</v>
+        <v>192.15899999999999</v>
       </c>
       <c r="O9">
-        <v>570.83500000000004</v>
+        <v>198.49100000000001</v>
       </c>
       <c r="P9">
-        <v>1.575</v>
+        <v>2.496</v>
       </c>
       <c r="Q9">
-        <v>30.85</v>
+        <v>-70.957999999999998</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>835.87199999999996</v>
+        <v>749.173</v>
       </c>
       <c r="U9">
-        <v>289.428</v>
+        <v>302.46800000000002</v>
       </c>
       <c r="V9">
-        <v>75.968000000000004</v>
+        <v>26.341000000000001</v>
       </c>
       <c r="W9">
-        <v>-20.817</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-34.265000000000001</v>
+        <v>-78.673000000000002</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>57.66</v>
+        <v>-3.0720000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>58.619</v>
+        <v>-7.0670000000000002</v>
       </c>
       <c r="D10">
-        <v>1034.213</v>
+        <v>478.58100000000002</v>
       </c>
       <c r="E10">
-        <v>512.85199999999998</v>
+        <v>225.721</v>
       </c>
       <c r="F10">
-        <v>416.42500000000001</v>
+        <v>171.28</v>
       </c>
       <c r="G10">
-        <v>1064.6849999999999</v>
+        <v>645.49699999999996</v>
       </c>
       <c r="H10">
-        <v>1381.271</v>
+        <v>937.99599999999998</v>
       </c>
       <c r="I10">
-        <v>139.87899999999999</v>
+        <v>50.131999999999998</v>
       </c>
       <c r="J10">
-        <v>1.4279999999999999</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>501.637</v>
+        <v>186.54</v>
       </c>
       <c r="O10">
-        <v>539.26</v>
+        <v>193.03</v>
       </c>
       <c r="P10">
-        <v>1.5449999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="Q10">
-        <v>-1.7929999999999999</v>
+        <v>14.459</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>12000</v>
+        <v>6900</v>
       </c>
       <c r="T10">
-        <v>842.01099999999997</v>
+        <v>744.96600000000001</v>
       </c>
       <c r="U10">
-        <v>287.63499999999999</v>
+        <v>316.92700000000002</v>
       </c>
       <c r="V10">
-        <v>97.923000000000002</v>
+        <v>32.58</v>
       </c>
       <c r="W10">
-        <v>-21.437999999999999</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-70.328000000000003</v>
+        <v>-10.27</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>58.619</v>
+        <v>-7.0670000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>55.863</v>
+        <v>-3.4390000000000001</v>
       </c>
       <c r="D11">
-        <v>1023.684</v>
+        <v>473.22800000000001</v>
       </c>
       <c r="E11">
-        <v>547.5</v>
+        <v>222.47900000000001</v>
       </c>
       <c r="F11">
-        <v>410.29</v>
+        <v>169.65199999999999</v>
       </c>
       <c r="G11">
-        <v>1076.4010000000001</v>
+        <v>635.36199999999997</v>
       </c>
       <c r="H11">
-        <v>1387.7449999999999</v>
+        <v>927.48400000000004</v>
       </c>
       <c r="I11">
-        <v>127.773</v>
+        <v>41.537999999999997</v>
       </c>
       <c r="J11">
-        <v>1.397</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-2.6429999999999998</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="N11">
-        <v>499.08100000000002</v>
+        <v>193.602</v>
       </c>
       <c r="O11">
-        <v>533.221</v>
+        <v>199.124</v>
       </c>
       <c r="P11">
-        <v>3.2080000000000002</v>
+        <v>2.464</v>
       </c>
       <c r="Q11">
-        <v>-62.283999999999999</v>
+        <v>-10.468999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>854.524</v>
+        <v>728.36</v>
       </c>
       <c r="U11">
-        <v>225.351</v>
+        <v>306.45800000000003</v>
       </c>
       <c r="V11">
-        <v>27.885000000000002</v>
+        <v>23.274000000000001</v>
       </c>
       <c r="W11">
-        <v>-22.021000000000001</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-49.406999999999996</v>
+        <v>-20.332000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>55.863</v>
+        <v>-3.4390000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>63.088999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="D12">
-        <v>1063.2280000000001</v>
+        <v>482.96199999999999</v>
       </c>
       <c r="E12">
-        <v>557.31100000000004</v>
+        <v>224.84399999999999</v>
       </c>
       <c r="F12">
-        <v>432.108</v>
+        <v>177.375</v>
       </c>
       <c r="G12">
-        <v>1119.0989999999999</v>
+        <v>649.51599999999996</v>
       </c>
       <c r="H12">
-        <v>1428.3240000000001</v>
+        <v>946.72900000000004</v>
       </c>
       <c r="I12">
-        <v>127.483</v>
+        <v>39.462000000000003</v>
       </c>
       <c r="J12">
-        <v>1.365</v>
+        <v>2.379</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>534.89499999999998</v>
+        <v>198.18899999999999</v>
       </c>
       <c r="O12">
-        <v>566.57299999999998</v>
+        <v>201.23099999999999</v>
       </c>
       <c r="P12">
-        <v>1.4870000000000001</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="Q12">
-        <v>21.62</v>
+        <v>11.215999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>861.75099999999998</v>
+        <v>745.49800000000005</v>
       </c>
       <c r="U12">
-        <v>246.971</v>
+        <v>317.67399999999998</v>
       </c>
       <c r="V12">
-        <v>102.05</v>
+        <v>23.315000000000001</v>
       </c>
       <c r="W12">
-        <v>-21.864999999999998</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-61.572000000000003</v>
+        <v>6.8</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>63.088999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>66.358000000000004</v>
+        <v>4.8470000000000004</v>
       </c>
       <c r="D13">
-        <v>1075.1189999999999</v>
+        <v>501.137</v>
       </c>
       <c r="E13">
-        <v>566.077</v>
+        <v>232.774</v>
       </c>
       <c r="F13">
-        <v>437.47800000000001</v>
+        <v>187.11099999999999</v>
       </c>
       <c r="G13">
-        <v>1166.2139999999999</v>
+        <v>674.05399999999997</v>
       </c>
       <c r="H13">
-        <v>1474.704</v>
+        <v>965.99699999999996</v>
       </c>
       <c r="I13">
-        <v>144.06</v>
+        <v>50.468000000000004</v>
       </c>
       <c r="J13">
-        <v>1.333</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>551.928</v>
+        <v>208.6</v>
       </c>
       <c r="O13">
-        <v>575.91999999999996</v>
+        <v>210.96100000000001</v>
       </c>
       <c r="P13">
-        <v>1.458</v>
+        <v>2.431</v>
       </c>
       <c r="Q13">
-        <v>32.776000000000003</v>
+        <v>26.515999999999998</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>898.78399999999999</v>
+        <v>755.03599999999994</v>
       </c>
       <c r="U13">
-        <v>279.74700000000001</v>
+        <v>344.19</v>
       </c>
       <c r="V13">
-        <v>81.122</v>
+        <v>34.712000000000003</v>
       </c>
       <c r="W13">
-        <v>-21.725999999999999</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-34.386000000000003</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>66.358000000000004</v>
+        <v>4.8470000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>66.885000000000005</v>
+        <v>4.8479999999999999</v>
       </c>
       <c r="D14">
-        <v>1083.864</v>
+        <v>517.66399999999999</v>
       </c>
       <c r="E14">
-        <v>551.90499999999997</v>
+        <v>242.34800000000001</v>
       </c>
       <c r="F14">
-        <v>443.21600000000001</v>
+        <v>192.6</v>
       </c>
       <c r="G14">
-        <v>1172.528</v>
+        <v>698.61900000000003</v>
       </c>
       <c r="H14">
-        <v>1490.271</v>
+        <v>985.64700000000005</v>
       </c>
       <c r="I14">
-        <v>139.68299999999999</v>
+        <v>45.094000000000001</v>
       </c>
       <c r="J14">
-        <v>1.3</v>
+        <v>2.343</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>535.85299999999995</v>
+        <v>185.8</v>
       </c>
       <c r="O14">
-        <v>570.62800000000004</v>
+        <v>196.98599999999999</v>
       </c>
       <c r="P14">
-        <v>1.4279999999999999</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="Q14">
-        <v>-3.9830000000000001</v>
+        <v>32.332999999999998</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>13000</v>
+        <v>7300</v>
       </c>
       <c r="T14">
-        <v>919.64300000000003</v>
+        <v>788.66099999999994</v>
       </c>
       <c r="U14">
-        <v>275.76400000000001</v>
+        <v>376.52300000000002</v>
       </c>
       <c r="V14">
-        <v>98.16</v>
+        <v>31.504000000000001</v>
       </c>
       <c r="W14">
-        <v>-23.574999999999999</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-74.905000000000001</v>
+        <v>4.2990000000000004</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>66.885000000000005</v>
+        <v>4.8479999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>61.551000000000002</v>
+        <v>15.416</v>
       </c>
       <c r="D15">
-        <v>1084.3420000000001</v>
+        <v>572.28200000000004</v>
       </c>
       <c r="E15">
-        <v>587.24900000000002</v>
+        <v>284.202</v>
       </c>
       <c r="F15">
-        <v>438.495</v>
+        <v>216.02699999999999</v>
       </c>
       <c r="G15">
-        <v>1187.317</v>
+        <v>729.803</v>
       </c>
       <c r="H15">
-        <v>1503.3309999999999</v>
+        <v>1009.038</v>
       </c>
       <c r="I15">
-        <v>137.93600000000001</v>
+        <v>49.970999999999997</v>
       </c>
       <c r="J15">
-        <v>1.266</v>
+        <v>2.3239999999999998</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-3.1E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="N15">
-        <v>537.54600000000005</v>
+        <v>220.2</v>
       </c>
       <c r="O15">
-        <v>571.18499999999995</v>
+        <v>222.524</v>
       </c>
       <c r="P15">
-        <v>1.397</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="Q15">
-        <v>-8.0269999999999992</v>
+        <v>-7.0679999999999996</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>932.14599999999996</v>
+        <v>786.51400000000001</v>
       </c>
       <c r="U15">
-        <v>267.73700000000002</v>
+        <v>368.46899999999999</v>
       </c>
       <c r="V15">
-        <v>59.225000000000001</v>
+        <v>25.117000000000001</v>
       </c>
       <c r="W15">
-        <v>-24.393999999999998</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-50.067</v>
+        <v>-24.670999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="AA15">
-        <v>61.551000000000002</v>
+        <v>15.416</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>75.14</v>
+        <v>32.441000000000003</v>
       </c>
       <c r="D16">
-        <v>1164.914</v>
+        <v>641.23</v>
       </c>
       <c r="E16">
-        <v>617.20000000000005</v>
+        <v>321.72399999999999</v>
       </c>
       <c r="F16">
-        <v>478.44400000000002</v>
+        <v>254.63200000000001</v>
       </c>
       <c r="G16">
-        <v>1273.9190000000001</v>
+        <v>820.16499999999996</v>
       </c>
       <c r="H16">
-        <v>1588.4449999999999</v>
+        <v>1098.6769999999999</v>
       </c>
       <c r="I16">
-        <v>128.50700000000001</v>
+        <v>57.963999999999999</v>
       </c>
       <c r="J16">
-        <v>1.2310000000000001</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>580.89</v>
+        <v>251.96199999999999</v>
       </c>
       <c r="O16">
-        <v>612.88400000000001</v>
+        <v>263.03699999999998</v>
       </c>
       <c r="P16">
-        <v>1.365</v>
+        <v>2.379</v>
       </c>
       <c r="Q16">
-        <v>40.040999999999997</v>
+        <v>49.625999999999998</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>975.56100000000004</v>
+        <v>835.64</v>
       </c>
       <c r="U16">
-        <v>307.77800000000002</v>
+        <v>419.50700000000001</v>
       </c>
       <c r="V16">
-        <v>104.914</v>
+        <v>50.401000000000003</v>
       </c>
       <c r="W16">
-        <v>-24.26</v>
+        <v>-10.324</v>
       </c>
       <c r="X16">
-        <v>-51.921999999999997</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1.4119999999999999</v>
       </c>
       <c r="AA16">
-        <v>75.14</v>
+        <v>32.441000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>85.183999999999997</v>
+        <v>43.08</v>
       </c>
       <c r="D17">
-        <v>1224.308</v>
+        <v>707.98699999999997</v>
       </c>
       <c r="E17">
-        <v>657.10500000000002</v>
+        <v>369.23700000000002</v>
       </c>
       <c r="F17">
-        <v>505.22</v>
+        <v>282.33499999999998</v>
       </c>
       <c r="G17">
-        <v>1314.5050000000001</v>
+        <v>861.60900000000004</v>
       </c>
       <c r="H17">
-        <v>1627.0129999999999</v>
+        <v>1141.768</v>
       </c>
       <c r="I17">
-        <v>142.661</v>
+        <v>68.564999999999998</v>
       </c>
       <c r="J17">
-        <v>1.196</v>
+        <v>2.286</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>623.90499999999997</v>
+        <v>282.46199999999999</v>
       </c>
       <c r="O17">
-        <v>654.42999999999995</v>
+        <v>287.94299999999998</v>
       </c>
       <c r="P17">
-        <v>1.333</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="Q17">
-        <v>-16.902000000000001</v>
+        <v>-7.109</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>972.58299999999997</v>
+        <v>853.82500000000005</v>
       </c>
       <c r="U17">
-        <v>290.87599999999998</v>
+        <v>412.572</v>
       </c>
       <c r="V17">
-        <v>93.680999999999997</v>
+        <v>38.834000000000003</v>
       </c>
       <c r="W17">
-        <v>-24.097999999999999</v>
+        <v>-10.385999999999999</v>
       </c>
       <c r="X17">
-        <v>-81.206999999999994</v>
+        <v>-39.853999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-0.17399999999999999</v>
       </c>
       <c r="AA17">
-        <v>85.183999999999997</v>
+        <v>43.08</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>84.052999999999997</v>
+        <v>49.667000000000002</v>
       </c>
       <c r="D18">
-        <v>1221.45</v>
+        <v>754.197</v>
       </c>
       <c r="E18">
-        <v>657.67600000000004</v>
+        <v>391.64100000000002</v>
       </c>
       <c r="F18">
-        <v>500.75700000000001</v>
+        <v>303.30799999999999</v>
       </c>
       <c r="G18">
-        <v>1323.2829999999999</v>
+        <v>916.31600000000003</v>
       </c>
       <c r="H18">
-        <v>1647.2670000000001</v>
+        <v>1198.6569999999999</v>
       </c>
       <c r="I18">
-        <v>175.107</v>
+        <v>70.695999999999998</v>
       </c>
       <c r="J18">
-        <v>1.159</v>
+        <v>2.266</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>623.36199999999997</v>
+        <v>279.00700000000001</v>
       </c>
       <c r="O18">
-        <v>667.40899999999999</v>
+        <v>286.78699999999998</v>
       </c>
       <c r="P18">
-        <v>1.2989999999999999</v>
+        <v>2.343</v>
       </c>
       <c r="Q18">
-        <v>-3.7570000000000001</v>
+        <v>23.332000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>14000</v>
+        <v>9200</v>
       </c>
       <c r="T18">
-        <v>979.85799999999995</v>
+        <v>911.87</v>
       </c>
       <c r="U18">
-        <v>287.11900000000003</v>
+        <v>345.28300000000002</v>
       </c>
       <c r="V18">
-        <v>82.878</v>
+        <v>47.481000000000002</v>
       </c>
       <c r="W18">
-        <v>-24.852</v>
+        <v>-10.385</v>
       </c>
       <c r="X18">
-        <v>-46.859000000000002</v>
+        <v>-20.190999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-0.90500000000000003</v>
       </c>
       <c r="AA18">
-        <v>84.052999999999997</v>
+        <v>49.667000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>77.921999999999997</v>
+        <v>51.593000000000004</v>
       </c>
       <c r="D19">
-        <v>1205.5630000000001</v>
+        <v>769.94799999999998</v>
       </c>
       <c r="E19">
-        <v>661.25099999999998</v>
+        <v>416.68700000000001</v>
       </c>
       <c r="F19">
-        <v>494.08699999999999</v>
+        <v>313.834</v>
       </c>
       <c r="G19">
-        <v>1316.289</v>
+        <v>967.29499999999996</v>
       </c>
       <c r="H19">
-        <v>1637.2860000000001</v>
+        <v>1246.9190000000001</v>
       </c>
       <c r="I19">
-        <v>141.702</v>
+        <v>84.167000000000002</v>
       </c>
       <c r="J19">
-        <v>1.123</v>
+        <v>2.246</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-3.4000000000000002E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="N19">
-        <v>607.70500000000004</v>
+        <v>324.95</v>
       </c>
       <c r="O19">
-        <v>652.66300000000001</v>
+        <v>331.4</v>
       </c>
       <c r="P19">
-        <v>1.266</v>
+        <v>2.3239999999999998</v>
       </c>
       <c r="Q19">
-        <v>-26.234000000000002</v>
+        <v>84.721999999999994</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>984.62300000000005</v>
+        <v>915.51900000000001</v>
       </c>
       <c r="U19">
-        <v>260.88499999999999</v>
+        <v>430.005</v>
       </c>
       <c r="V19">
-        <v>84.48</v>
+        <v>72.691999999999993</v>
       </c>
       <c r="W19">
-        <v>-27.375</v>
+        <v>-12.074999999999999</v>
       </c>
       <c r="X19">
-        <v>-81.236000000000004</v>
+        <v>-42.468000000000004</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>68.945999999999998</v>
       </c>
       <c r="AA19">
-        <v>77.921999999999997</v>
+        <v>51.593000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>89.706000000000003</v>
+        <v>57.228999999999999</v>
       </c>
       <c r="D20">
-        <v>1272.058</v>
+        <v>816.71100000000001</v>
       </c>
       <c r="E20">
-        <v>687.029</v>
+        <v>417.24799999999999</v>
       </c>
       <c r="F20">
-        <v>530.50199999999995</v>
+        <v>336.28100000000001</v>
       </c>
       <c r="G20">
-        <v>1397.434</v>
+        <v>950.51300000000003</v>
       </c>
       <c r="H20">
-        <v>1723.2</v>
+        <v>1231.444</v>
       </c>
       <c r="I20">
-        <v>152.9</v>
+        <v>76.201999999999998</v>
       </c>
       <c r="J20">
-        <v>1.085</v>
+        <v>2.7530000000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>663.79899999999998</v>
+        <v>347.31900000000002</v>
       </c>
       <c r="O20">
-        <v>708.52499999999998</v>
+        <v>353.89600000000002</v>
       </c>
       <c r="P20">
-        <v>1.2310000000000001</v>
+        <v>3.101</v>
       </c>
       <c r="Q20">
-        <v>52.246000000000002</v>
+        <v>11.052</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1014.675</v>
+        <v>877.548</v>
       </c>
       <c r="U20">
-        <v>313.13099999999997</v>
+        <v>441.05700000000002</v>
       </c>
       <c r="V20">
-        <v>141.91499999999999</v>
+        <v>110.568</v>
       </c>
       <c r="W20">
-        <v>-26.506</v>
+        <v>-11.829000000000001</v>
       </c>
       <c r="X20">
-        <v>-70.968999999999994</v>
+        <v>-105.55</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>22.58</v>
       </c>
       <c r="AA20">
-        <v>89.706000000000003</v>
+        <v>57.228999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>96.724999999999994</v>
+        <v>64.438999999999993</v>
       </c>
       <c r="D21">
-        <v>1312.7180000000001</v>
+        <v>867.01499999999999</v>
       </c>
       <c r="E21">
-        <v>731.57399999999996</v>
+        <v>456.41500000000002</v>
       </c>
       <c r="F21">
-        <v>549.80100000000004</v>
+        <v>356.01</v>
       </c>
       <c r="G21">
-        <v>1383.3720000000001</v>
+        <v>978.54200000000003</v>
       </c>
       <c r="H21">
-        <v>1715.2719999999999</v>
+        <v>1271.1320000000001</v>
       </c>
       <c r="I21">
-        <v>134.99100000000001</v>
+        <v>83.935000000000002</v>
       </c>
       <c r="J21">
-        <v>1.046</v>
+        <v>2.7149999999999999</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>664.16899999999998</v>
+        <v>350.83100000000002</v>
       </c>
       <c r="O21">
-        <v>708.79600000000005</v>
+        <v>356.495</v>
       </c>
       <c r="P21">
-        <v>1.196</v>
+        <v>3.0670000000000002</v>
       </c>
       <c r="Q21">
-        <v>-61.313000000000002</v>
+        <v>-20.331</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1006.476</v>
+        <v>914.63699999999994</v>
       </c>
       <c r="U21">
-        <v>251.81800000000001</v>
+        <v>420.726</v>
       </c>
       <c r="V21">
-        <v>93.846000000000004</v>
+        <v>54.323999999999998</v>
       </c>
       <c r="W21">
-        <v>-26.288</v>
+        <v>-11.897</v>
       </c>
       <c r="X21">
-        <v>-123.121</v>
+        <v>-57.548000000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>96.724999999999994</v>
+        <v>64.438999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>93.442999999999998</v>
+        <v>64.608999999999995</v>
       </c>
       <c r="D22">
-        <v>1304.5940000000001</v>
+        <v>884.76499999999999</v>
       </c>
       <c r="E22">
-        <v>704.64</v>
+        <v>451.26</v>
       </c>
       <c r="F22">
-        <v>540.08100000000002</v>
+        <v>366.92399999999998</v>
       </c>
       <c r="G22">
-        <v>1197.9970000000001</v>
+        <v>1016.908</v>
       </c>
       <c r="H22">
-        <v>1671.0440000000001</v>
+        <v>1318.6859999999999</v>
       </c>
       <c r="I22">
-        <v>148.108</v>
+        <v>89.132999999999996</v>
       </c>
       <c r="J22">
-        <v>1.0069999999999999</v>
+        <v>2.698</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>655.54899999999998</v>
+        <v>336.70100000000002</v>
       </c>
       <c r="O22">
-        <v>667.26300000000003</v>
+        <v>347.81299999999999</v>
       </c>
       <c r="P22">
-        <v>1.1599999999999999</v>
+        <v>3.0539999999999998</v>
       </c>
       <c r="Q22">
-        <v>-27.241</v>
+        <v>37.631999999999998</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>16100</v>
+        <v>11000</v>
       </c>
       <c r="T22">
-        <v>1003.7809999999999</v>
+        <v>970.87300000000005</v>
       </c>
       <c r="U22">
-        <v>224.577</v>
+        <v>458.358</v>
       </c>
       <c r="V22">
-        <v>117.995</v>
+        <v>89.944000000000003</v>
       </c>
       <c r="W22">
-        <v>-27.391999999999999</v>
+        <v>-11.98</v>
       </c>
       <c r="X22">
-        <v>-93.221999999999994</v>
+        <v>-26.885999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,39 +2591,39 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>93.442999999999998</v>
+        <v>64.608999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>83.415999999999997</v>
+        <v>65.503</v>
       </c>
       <c r="D23">
-        <v>1302.625</v>
+        <v>943.92399999999998</v>
       </c>
       <c r="E23">
-        <v>734.37800000000004</v>
+        <v>480.33300000000003</v>
       </c>
       <c r="F23">
-        <v>531.97199999999998</v>
+        <v>393.20400000000001</v>
       </c>
       <c r="G23">
-        <v>1380.201</v>
+        <v>1056.1120000000001</v>
       </c>
       <c r="H23">
-        <v>1744.864</v>
+        <v>1375.877</v>
       </c>
       <c r="I23">
-        <v>139.02600000000001</v>
+        <v>88.846999999999994</v>
       </c>
       <c r="J23">
-        <v>0.96599999999999997</v>
+        <v>4.1680000000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2632,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-3.7999999999999999E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="N23">
-        <v>655.31700000000001</v>
+        <v>363.041</v>
       </c>
       <c r="O23">
-        <v>699.91099999999994</v>
+        <v>375.98899999999998</v>
       </c>
       <c r="P23">
-        <v>1.1220000000000001</v>
+        <v>4.5289999999999999</v>
       </c>
       <c r="Q23">
-        <v>-10.458</v>
+        <v>14.294</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1044.953</v>
+        <v>999.88800000000003</v>
       </c>
       <c r="U23">
-        <v>214.119</v>
+        <v>472.65199999999999</v>
       </c>
       <c r="V23">
-        <v>78.486000000000004</v>
+        <v>101.251</v>
       </c>
       <c r="W23">
-        <v>-28.748000000000001</v>
+        <v>-13.74</v>
       </c>
       <c r="X23">
-        <v>-68.513000000000005</v>
+        <v>-56.973999999999997</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2674,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>83.415999999999997</v>
+        <v>65.503</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>91.616</v>
+        <v>68.655000000000001</v>
       </c>
       <c r="D24">
-        <v>1344.16</v>
+        <v>981.82500000000005</v>
       </c>
       <c r="E24">
-        <v>732.19299999999998</v>
+        <v>509.50900000000001</v>
       </c>
       <c r="F24">
-        <v>556.99300000000005</v>
+        <v>418.00200000000001</v>
       </c>
       <c r="G24">
-        <v>1408.1120000000001</v>
+        <v>1148.133</v>
       </c>
       <c r="H24">
-        <v>1783.008</v>
+        <v>1483.1289999999999</v>
       </c>
       <c r="I24">
-        <v>151.179</v>
+        <v>88.867999999999995</v>
       </c>
       <c r="J24">
-        <v>0.92500000000000004</v>
+        <v>4.2060000000000004</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>668.17899999999997</v>
+        <v>407.33499999999998</v>
       </c>
       <c r="O24">
-        <v>713.5</v>
+        <v>420.48599999999999</v>
       </c>
       <c r="P24">
-        <v>1.085</v>
+        <v>4.2919999999999998</v>
       </c>
       <c r="Q24">
-        <v>24.594999999999999</v>
+        <v>55.805</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1069.508</v>
+        <v>1062.643</v>
       </c>
       <c r="U24">
-        <v>238.714</v>
+        <v>528.45699999999999</v>
       </c>
       <c r="V24">
-        <v>128.708</v>
+        <v>106.184</v>
       </c>
       <c r="W24">
-        <v>-29.146999999999998</v>
+        <v>-13.804</v>
       </c>
       <c r="X24">
-        <v>-70.120999999999995</v>
+        <v>-38.627000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>91.616</v>
+        <v>68.655000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>90.569000000000003</v>
+        <v>73.647000000000006</v>
       </c>
       <c r="D25">
-        <v>1338.5409999999999</v>
+        <v>1027.5630000000001</v>
       </c>
       <c r="E25">
-        <v>742.82399999999996</v>
+        <v>536.62900000000002</v>
       </c>
       <c r="F25">
-        <v>552.50900000000001</v>
+        <v>431.99700000000001</v>
       </c>
       <c r="G25">
-        <v>1493.5730000000001</v>
+        <v>1089.7070000000001</v>
       </c>
       <c r="H25">
-        <v>1871.981</v>
+        <v>1432.2429999999999</v>
       </c>
       <c r="I25">
-        <v>156.30099999999999</v>
+        <v>99.275999999999996</v>
       </c>
       <c r="J25">
-        <v>0.88300000000000001</v>
+        <v>3.9180000000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>729.67600000000004</v>
+        <v>432.65199999999999</v>
       </c>
       <c r="O25">
-        <v>777.05100000000004</v>
+        <v>445.54</v>
       </c>
       <c r="P25">
-        <v>1.046</v>
+        <v>4.2770000000000001</v>
       </c>
       <c r="Q25">
-        <v>53.737000000000002</v>
+        <v>-96.8</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1094.93</v>
+        <v>986.70299999999997</v>
       </c>
       <c r="U25">
-        <v>292.45100000000002</v>
+        <v>431.65699999999998</v>
       </c>
       <c r="V25">
-        <v>153.226</v>
+        <v>89.358999999999995</v>
       </c>
       <c r="W25">
-        <v>-28.067</v>
+        <v>-13.378</v>
       </c>
       <c r="X25">
-        <v>-72.733000000000004</v>
+        <v>-163.74700000000001</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>90.569000000000003</v>
+        <v>73.647000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>77.787999999999997</v>
+        <v>75.373000000000005</v>
       </c>
       <c r="D26">
-        <v>1265.0730000000001</v>
+        <v>1060.2339999999999</v>
       </c>
       <c r="E26">
-        <v>703.22799999999995</v>
+        <v>531.82399999999996</v>
       </c>
       <c r="F26">
-        <v>519.202</v>
+        <v>451.05</v>
       </c>
       <c r="G26">
-        <v>1284.2339999999999</v>
+        <v>1112.355</v>
       </c>
       <c r="H26">
-        <v>1777.971</v>
+        <v>1459.021</v>
       </c>
       <c r="I26">
-        <v>135.54</v>
+        <v>99.483999999999995</v>
       </c>
       <c r="J26">
-        <v>0.84</v>
+        <v>3.831</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>679.89599999999996</v>
+        <v>402.74</v>
       </c>
       <c r="O26">
-        <v>691.37199999999996</v>
+        <v>416.35</v>
       </c>
       <c r="P26">
-        <v>1.0069999999999999</v>
+        <v>4.194</v>
       </c>
       <c r="Q26">
-        <v>-32.25</v>
+        <v>15.821999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>16400</v>
+        <v>13400</v>
       </c>
       <c r="T26">
-        <v>1086.5989999999999</v>
+        <v>1042.671</v>
       </c>
       <c r="U26">
-        <v>260.20100000000002</v>
+        <v>447.47899999999998</v>
       </c>
       <c r="V26">
-        <v>81.661000000000001</v>
+        <v>79.424000000000007</v>
       </c>
       <c r="W26">
-        <v>-28.202000000000002</v>
+        <v>-13.481</v>
       </c>
       <c r="X26">
-        <v>-76.936999999999998</v>
+        <v>-39.917999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2923,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>77.787999999999997</v>
+        <v>75.373000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>78.521000000000001</v>
+        <v>70.706999999999994</v>
       </c>
       <c r="D27">
-        <v>1287.3699999999999</v>
+        <v>1097.425</v>
       </c>
       <c r="E27">
-        <v>700.41899999999998</v>
+        <v>561.11199999999997</v>
       </c>
       <c r="F27">
-        <v>525.82799999999997</v>
+        <v>460.72899999999998</v>
       </c>
       <c r="G27">
-        <v>1295.922</v>
+        <v>1135.0060000000001</v>
       </c>
       <c r="H27">
-        <v>1775.21</v>
+        <v>1489.365</v>
       </c>
       <c r="I27">
-        <v>117.30800000000001</v>
+        <v>105.889</v>
       </c>
       <c r="J27">
-        <v>0.79500000000000004</v>
+        <v>3.8250000000000002</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-4.1000000000000002E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="N27">
-        <v>682.6</v>
+        <v>430.024</v>
       </c>
       <c r="O27">
-        <v>694.26700000000005</v>
+        <v>444.762</v>
       </c>
       <c r="P27">
-        <v>0.96599999999999997</v>
+        <v>4.1920000000000002</v>
       </c>
       <c r="Q27">
-        <v>-5.8000000000000003E-2</v>
+        <v>2.423</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1080.943</v>
+        <v>1044.6030000000001</v>
       </c>
       <c r="U27">
-        <v>260.14299999999997</v>
+        <v>449.90199999999999</v>
       </c>
       <c r="V27">
-        <v>123.5</v>
+        <v>113.68899999999999</v>
       </c>
       <c r="W27">
-        <v>-30.597000000000001</v>
+        <v>-16.882999999999999</v>
       </c>
       <c r="X27">
-        <v>-111.325</v>
+        <v>-86.293999999999997</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>78.521000000000001</v>
+        <v>70.706999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>80.316000000000003</v>
+        <v>72.725999999999999</v>
       </c>
       <c r="D28">
-        <v>1308.4280000000001</v>
+        <v>1149.1279999999999</v>
       </c>
       <c r="E28">
-        <v>708.49300000000005</v>
+        <v>591.57299999999998</v>
       </c>
       <c r="F28">
-        <v>538.43799999999999</v>
+        <v>492.685</v>
       </c>
       <c r="G28">
-        <v>1347.106</v>
+        <v>1117.586</v>
       </c>
       <c r="H28">
-        <v>1836.1379999999999</v>
+        <v>1497.9</v>
       </c>
       <c r="I28">
-        <v>127.664</v>
+        <v>116.053</v>
       </c>
       <c r="J28">
-        <v>0.75</v>
+        <v>3.6629999999999998</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>719.44299999999998</v>
+        <v>476.33300000000003</v>
       </c>
       <c r="O28">
-        <v>731.75400000000002</v>
+        <v>492.33699999999999</v>
       </c>
       <c r="P28">
-        <v>0.92500000000000004</v>
+        <v>4.024</v>
       </c>
       <c r="Q28">
-        <v>37.655000000000001</v>
+        <v>-60.302</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1104.384</v>
+        <v>1005.563</v>
       </c>
       <c r="U28">
-        <v>297.798</v>
+        <v>389.6</v>
       </c>
       <c r="V28">
-        <v>134.56</v>
+        <v>120.425</v>
       </c>
       <c r="W28">
-        <v>-30.850999999999999</v>
+        <v>-16.370999999999999</v>
       </c>
       <c r="X28">
-        <v>-79.447999999999993</v>
+        <v>-142.81200000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>80.316000000000003</v>
+        <v>72.725999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>84.7</v>
+        <v>73.962999999999994</v>
       </c>
       <c r="D29">
-        <v>1324.7090000000001</v>
+        <v>1179.0450000000001</v>
       </c>
       <c r="E29">
-        <v>737.90099999999995</v>
+        <v>628.25400000000002</v>
       </c>
       <c r="F29">
-        <v>546.4</v>
+        <v>500.79300000000001</v>
       </c>
       <c r="G29">
-        <v>1437.3230000000001</v>
+        <v>1100.0899999999999</v>
       </c>
       <c r="H29">
-        <v>1932.8520000000001</v>
+        <v>1487.5229999999999</v>
       </c>
       <c r="I29">
-        <v>132.34299999999999</v>
+        <v>119.05</v>
       </c>
       <c r="J29">
-        <v>0.70399999999999996</v>
+        <v>3.7480000000000002</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>778.34799999999996</v>
+        <v>488.52199999999999</v>
       </c>
       <c r="O29">
-        <v>793.03399999999999</v>
+        <v>504.28100000000001</v>
       </c>
       <c r="P29">
-        <v>0.88300000000000001</v>
+        <v>4.1139999999999999</v>
       </c>
       <c r="Q29">
-        <v>50.537999999999997</v>
+        <v>-60.942999999999998</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1139.818</v>
+        <v>983.24199999999996</v>
       </c>
       <c r="U29">
-        <v>348.33600000000001</v>
+        <v>328.65699999999998</v>
       </c>
       <c r="V29">
-        <v>130.40299999999999</v>
+        <v>76.391999999999996</v>
       </c>
       <c r="W29">
-        <v>-29.63</v>
+        <v>-16.209</v>
       </c>
       <c r="X29">
-        <v>-67.771000000000001</v>
+        <v>-124.929</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>84.7</v>
+        <v>73.962999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>47.046999999999997</v>
+        <v>78.816000000000003</v>
       </c>
       <c r="D30">
-        <v>1346.2819999999999</v>
+        <v>1220.068</v>
       </c>
       <c r="E30">
-        <v>732.40499999999997</v>
+        <v>593.16899999999998</v>
       </c>
       <c r="F30">
-        <v>553.14599999999996</v>
+        <v>523.62099999999998</v>
       </c>
       <c r="G30">
-        <v>1431.8689999999999</v>
+        <v>1059.6379999999999</v>
       </c>
       <c r="H30">
-        <v>1867.454</v>
+        <v>1450.298</v>
       </c>
       <c r="I30">
-        <v>117.934</v>
+        <v>108.07</v>
       </c>
       <c r="J30">
-        <v>0.65700000000000003</v>
+        <v>3.7530000000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>747.89599999999996</v>
+        <v>447.952</v>
       </c>
       <c r="O30">
-        <v>762.18899999999996</v>
+        <v>466.24900000000002</v>
       </c>
       <c r="P30">
-        <v>0.84</v>
+        <v>4.1230000000000002</v>
       </c>
       <c r="Q30">
-        <v>-53.582999999999998</v>
+        <v>-18.657</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>17200</v>
+        <v>15300</v>
       </c>
       <c r="T30">
-        <v>1105.2650000000001</v>
+        <v>984.04899999999998</v>
       </c>
       <c r="U30">
-        <v>294.75299999999999</v>
+        <v>310</v>
       </c>
       <c r="V30">
-        <v>64.528000000000006</v>
+        <v>100.718</v>
       </c>
       <c r="W30">
-        <v>-29.922000000000001</v>
+        <v>-16.056999999999999</v>
       </c>
       <c r="X30">
-        <v>-94.346999999999994</v>
+        <v>-97.704999999999998</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,39 +3255,39 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>47.046999999999997</v>
+        <v>78.816000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>96.167000000000002</v>
+        <v>70.784000000000006</v>
       </c>
       <c r="D31">
-        <v>1395.3330000000001</v>
+        <v>1225.99</v>
       </c>
       <c r="E31">
-        <v>784.88900000000001</v>
+        <v>622.61900000000003</v>
       </c>
       <c r="F31">
-        <v>572.36599999999999</v>
+        <v>510.988</v>
       </c>
       <c r="G31">
-        <v>1468.4559999999999</v>
+        <v>1133.2539999999999</v>
       </c>
       <c r="H31">
-        <v>1893.86</v>
+        <v>1526.3579999999999</v>
       </c>
       <c r="I31">
-        <v>137.23699999999999</v>
+        <v>113.26900000000001</v>
       </c>
       <c r="J31">
-        <v>0.60799999999999998</v>
+        <v>3.6440000000000001</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3296,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-4.3999999999999997E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="N31">
-        <v>764.44</v>
+        <v>481.79500000000002</v>
       </c>
       <c r="O31">
-        <v>779.06299999999999</v>
+        <v>499.06099999999998</v>
       </c>
       <c r="P31">
-        <v>0.79500000000000004</v>
+        <v>4.0190000000000001</v>
       </c>
       <c r="Q31">
-        <v>-2.766</v>
+        <v>46.064</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1114.797</v>
+        <v>1027.297</v>
       </c>
       <c r="U31">
-        <v>291.98700000000002</v>
+        <v>356.06400000000002</v>
       </c>
       <c r="V31">
-        <v>116.218</v>
+        <v>118.5</v>
       </c>
       <c r="W31">
-        <v>-34.918999999999997</v>
+        <v>-17.542000000000002</v>
       </c>
       <c r="X31">
-        <v>-103.452</v>
+        <v>-54.08</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3338,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>96.167000000000002</v>
+        <v>70.784000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>109.315</v>
+        <v>74.567999999999998</v>
       </c>
       <c r="D32">
-        <v>1457.0540000000001</v>
+        <v>1224.6410000000001</v>
       </c>
       <c r="E32">
-        <v>801.875</v>
+        <v>631.31799999999998</v>
       </c>
       <c r="F32">
-        <v>607.11800000000005</v>
+        <v>516.62400000000002</v>
       </c>
       <c r="G32">
-        <v>1504.1289999999999</v>
+        <v>1154.9939999999999</v>
       </c>
       <c r="H32">
-        <v>1933.5830000000001</v>
+        <v>1551.549</v>
       </c>
       <c r="I32">
-        <v>152.49100000000001</v>
+        <v>127.97199999999999</v>
       </c>
       <c r="J32">
-        <v>0.55900000000000005</v>
+        <v>3.633</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>808.87599999999998</v>
+        <v>515.82600000000002</v>
       </c>
       <c r="O32">
-        <v>824.08500000000004</v>
+        <v>533.52300000000002</v>
       </c>
       <c r="P32">
-        <v>0.75</v>
+        <v>3.734</v>
       </c>
       <c r="Q32">
-        <v>16.669</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1109.498</v>
+        <v>1018.026</v>
       </c>
       <c r="U32">
-        <v>308.65600000000001</v>
+        <v>357.04700000000003</v>
       </c>
       <c r="V32">
-        <v>147.74600000000001</v>
+        <v>119.282</v>
       </c>
       <c r="W32">
-        <v>-34.066000000000003</v>
+        <v>-17.341000000000001</v>
       </c>
       <c r="X32">
-        <v>-103.625</v>
+        <v>-94.206999999999994</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>109.315</v>
+        <v>74.567999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>115.242</v>
+        <v>65.820999999999998</v>
       </c>
       <c r="D33">
-        <v>1466.2260000000001</v>
+        <v>1160.086</v>
       </c>
       <c r="E33">
-        <v>834.34699999999998</v>
+        <v>586.76199999999994</v>
       </c>
       <c r="F33">
-        <v>610.46799999999996</v>
+        <v>483.57299999999998</v>
       </c>
       <c r="G33">
-        <v>1612.4</v>
+        <v>1132.3109999999999</v>
       </c>
       <c r="H33">
-        <v>2034.9069999999999</v>
+        <v>1523.95</v>
       </c>
       <c r="I33">
-        <v>158.26499999999999</v>
+        <v>121.395</v>
       </c>
       <c r="J33">
-        <v>0.50900000000000001</v>
+        <v>3.5409999999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>896.28</v>
+        <v>467.495</v>
       </c>
       <c r="O33">
-        <v>915.66499999999996</v>
+        <v>484.9</v>
       </c>
       <c r="P33">
-        <v>0.70399999999999996</v>
+        <v>3.6440000000000001</v>
       </c>
       <c r="Q33">
-        <v>53.084000000000003</v>
+        <v>16.645</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1119.242</v>
+        <v>1039.05</v>
       </c>
       <c r="U33">
-        <v>361.74</v>
+        <v>373.69200000000001</v>
       </c>
       <c r="V33">
-        <v>185.31299999999999</v>
+        <v>95.584999999999994</v>
       </c>
       <c r="W33">
-        <v>-33.710999999999999</v>
+        <v>-17.123000000000001</v>
       </c>
       <c r="X33">
-        <v>-112.15600000000001</v>
+        <v>-45.747</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>115.242</v>
+        <v>65.820999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>113.56399999999999</v>
+        <v>39.008000000000003</v>
       </c>
       <c r="D34">
-        <v>1481.6579999999999</v>
+        <v>989.83699999999999</v>
       </c>
       <c r="E34">
-        <v>794.44600000000003</v>
+        <v>484.80799999999999</v>
       </c>
       <c r="F34">
-        <v>620.06200000000001</v>
+        <v>402.38600000000002</v>
       </c>
       <c r="G34">
-        <v>1473.61</v>
+        <v>1032.8989999999999</v>
       </c>
       <c r="H34">
-        <v>1903.097</v>
+        <v>1411.85</v>
       </c>
       <c r="I34">
-        <v>155.03399999999999</v>
+        <v>111.645</v>
       </c>
       <c r="J34">
-        <v>0.45700000000000002</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>819.53599999999994</v>
+        <v>412.85199999999998</v>
       </c>
       <c r="O34">
-        <v>839.899</v>
+        <v>427.96199999999999</v>
       </c>
       <c r="P34">
-        <v>0.65700000000000003</v>
+        <v>1.9970000000000001</v>
       </c>
       <c r="Q34">
-        <v>-85.161000000000001</v>
+        <v>-18.936</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>18900</v>
+        <v>13300</v>
       </c>
       <c r="T34">
-        <v>1063.1980000000001</v>
+        <v>983.88800000000003</v>
       </c>
       <c r="U34">
-        <v>276.57900000000001</v>
+        <v>354.75599999999997</v>
       </c>
       <c r="V34">
-        <v>123.045</v>
+        <v>113.758</v>
       </c>
       <c r="W34">
-        <v>-33.726999999999997</v>
+        <v>-16.602</v>
       </c>
       <c r="X34">
-        <v>-170.88200000000001</v>
+        <v>-90.882999999999996</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3587,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>113.56399999999999</v>
+        <v>39.008000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>109.798</v>
+        <v>8.7880000000000003</v>
       </c>
       <c r="D35">
-        <v>1468.53</v>
+        <v>823.32500000000005</v>
       </c>
       <c r="E35">
-        <v>826.36599999999999</v>
+        <v>412.11500000000001</v>
       </c>
       <c r="F35">
-        <v>607.58799999999997</v>
+        <v>293.72800000000001</v>
       </c>
       <c r="G35">
-        <v>1532.0170000000001</v>
+        <v>970.76800000000003</v>
       </c>
       <c r="H35">
-        <v>2204.607</v>
+        <v>1345.117</v>
       </c>
       <c r="I35">
-        <v>120.91800000000001</v>
+        <v>111.295</v>
       </c>
       <c r="J35">
-        <v>0.40400000000000003</v>
+        <v>1.865</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-4.9000000000000002E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="N35">
-        <v>900.73</v>
+        <v>365.21100000000001</v>
       </c>
       <c r="O35">
-        <v>1127.578</v>
+        <v>380.685</v>
       </c>
       <c r="P35">
-        <v>277.286</v>
+        <v>1.972</v>
       </c>
       <c r="Q35">
-        <v>-6.9340000000000002</v>
+        <v>4.5529999999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1077.029</v>
+        <v>964.43200000000002</v>
       </c>
       <c r="U35">
-        <v>269.64499999999998</v>
+        <v>359.30900000000003</v>
       </c>
       <c r="V35">
-        <v>127.07899999999999</v>
+        <v>48.067999999999998</v>
       </c>
       <c r="W35">
-        <v>-37.887</v>
+        <v>-18.099</v>
       </c>
       <c r="X35">
-        <v>-110.279</v>
+        <v>-25.702999999999999</v>
       </c>
       <c r="Y35">
-        <v>205.613</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>109.798</v>
+        <v>8.7880000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>114.61199999999999</v>
+        <v>5.4160000000000004</v>
       </c>
       <c r="D36">
-        <v>1516.385</v>
+        <v>749.88699999999994</v>
       </c>
       <c r="E36">
-        <v>842.29399999999998</v>
+        <v>374.02</v>
       </c>
       <c r="F36">
-        <v>637.54100000000005</v>
+        <v>265.05700000000002</v>
       </c>
       <c r="G36">
-        <v>1564.9190000000001</v>
+        <v>952.48800000000006</v>
       </c>
       <c r="H36">
-        <v>2239.4189999999999</v>
+        <v>1323.8109999999999</v>
       </c>
       <c r="I36">
-        <v>117.60899999999999</v>
+        <v>95.221999999999994</v>
       </c>
       <c r="J36">
-        <v>0.35</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>909.51</v>
+        <v>346.637</v>
       </c>
       <c r="O36">
-        <v>1130.192</v>
+        <v>362.642</v>
       </c>
       <c r="P36">
-        <v>270.57100000000003</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="Q36">
-        <v>-0.20499999999999999</v>
+        <v>26.509</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>1109.2270000000001</v>
+        <v>961.16899999999998</v>
       </c>
       <c r="U36">
-        <v>269.44</v>
+        <v>385.81799999999998</v>
       </c>
       <c r="V36">
-        <v>120.748</v>
+        <v>77.436999999999998</v>
       </c>
       <c r="W36">
-        <v>-36.073</v>
+        <v>-18.187999999999999</v>
       </c>
       <c r="X36">
-        <v>-97.396000000000001</v>
+        <v>-48.622</v>
       </c>
       <c r="Y36">
-        <v>199.83699999999999</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>114.61199999999999</v>
+        <v>5.4160000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>117.181</v>
+        <v>9.5310000000000006</v>
       </c>
       <c r="D37">
-        <v>1552.1320000000001</v>
+        <v>725.91200000000003</v>
       </c>
       <c r="E37">
-        <v>852.84299999999996</v>
+        <v>364.53300000000002</v>
       </c>
       <c r="F37">
-        <v>646.27800000000002</v>
+        <v>266.411</v>
       </c>
       <c r="G37">
-        <v>1631.183</v>
+        <v>961.55200000000002</v>
       </c>
       <c r="H37">
-        <v>2311.5700000000002</v>
+        <v>1326.2439999999999</v>
       </c>
       <c r="I37">
-        <v>117.203</v>
+        <v>104.25700000000001</v>
       </c>
       <c r="J37">
-        <v>0.29499999999999998</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>977.44</v>
+        <v>362.09800000000001</v>
       </c>
       <c r="O37">
-        <v>1199.74</v>
+        <v>378.24599999999998</v>
       </c>
       <c r="P37">
-        <v>272.12599999999998</v>
+        <v>1.919</v>
       </c>
       <c r="Q37">
-        <v>43.301000000000002</v>
+        <v>21.823</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1111.83</v>
+        <v>947.99800000000005</v>
       </c>
       <c r="U37">
-        <v>312.74099999999999</v>
+        <v>407.64100000000002</v>
       </c>
       <c r="V37">
-        <v>191.179</v>
+        <v>66.843000000000004</v>
       </c>
       <c r="W37">
-        <v>-35.741999999999997</v>
+        <v>-18.106999999999999</v>
       </c>
       <c r="X37">
-        <v>-116.22199999999999</v>
+        <v>-42.244</v>
       </c>
       <c r="Y37">
-        <v>200.76400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>117.181</v>
+        <v>9.5310000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>112.842</v>
+        <v>13.528</v>
       </c>
       <c r="D38">
-        <v>1537.385</v>
+        <v>737.423</v>
       </c>
       <c r="E38">
-        <v>832.79700000000003</v>
+        <v>362.392</v>
       </c>
       <c r="F38">
-        <v>636.86099999999999</v>
+        <v>278.483</v>
       </c>
       <c r="G38">
-        <v>1628.8489999999999</v>
+        <v>922.63400000000001</v>
       </c>
       <c r="H38">
-        <v>2311.4079999999999</v>
+        <v>1283.5350000000001</v>
       </c>
       <c r="I38">
-        <v>110.893</v>
+        <v>101.61</v>
       </c>
       <c r="J38">
-        <v>0.23899999999999999</v>
+        <v>1.7789999999999999</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>940.69200000000001</v>
+        <v>366.96800000000002</v>
       </c>
       <c r="O38">
-        <v>1167.7249999999999</v>
+        <v>383.72500000000002</v>
       </c>
       <c r="P38">
-        <v>273.82600000000002</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="Q38">
-        <v>-42.262999999999998</v>
+        <v>-41.847000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>16000</v>
+        <v>9900</v>
       </c>
       <c r="T38">
-        <v>1143.683</v>
+        <v>899.81</v>
       </c>
       <c r="U38">
-        <v>270.47800000000001</v>
+        <v>365.79399999999998</v>
       </c>
       <c r="V38">
-        <v>80.623000000000005</v>
+        <v>47.805</v>
       </c>
       <c r="W38">
-        <v>-35.929000000000002</v>
+        <v>-17.754999999999999</v>
       </c>
       <c r="X38">
-        <v>-99.468999999999994</v>
+        <v>-75.801000000000002</v>
       </c>
       <c r="Y38">
-        <v>201.96100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>112.842</v>
+        <v>13.528</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>89.915000000000006</v>
+        <v>8.4749999999999996</v>
       </c>
       <c r="D39">
-        <v>1506.691</v>
+        <v>737.173</v>
       </c>
       <c r="E39">
-        <v>853.529</v>
+        <v>373.48099999999999</v>
       </c>
       <c r="F39">
-        <v>610.71699999999998</v>
+        <v>268.12799999999999</v>
       </c>
       <c r="G39">
-        <v>1606.655</v>
+        <v>906.452</v>
       </c>
       <c r="H39">
-        <v>2274.8519999999999</v>
+        <v>1271.0450000000001</v>
       </c>
       <c r="I39">
-        <v>122.15600000000001</v>
+        <v>93.893000000000001</v>
       </c>
       <c r="J39">
-        <v>0.18099999999999999</v>
+        <v>1.7490000000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-5.2999999999999999E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="N39">
-        <v>913.35400000000004</v>
+        <v>346.6</v>
       </c>
       <c r="O39">
-        <v>1144.9269999999999</v>
+        <v>374.27600000000001</v>
       </c>
       <c r="P39">
-        <v>276.29000000000002</v>
+        <v>1.865</v>
       </c>
       <c r="Q39">
-        <v>-20.564</v>
+        <v>-16.43</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1129.925</v>
+        <v>896.76900000000001</v>
       </c>
       <c r="U39">
-        <v>249.91399999999999</v>
+        <v>349.36399999999998</v>
       </c>
       <c r="V39">
-        <v>124.926</v>
+        <v>14.519</v>
       </c>
       <c r="W39">
-        <v>-40.475999999999999</v>
+        <v>-19.591999999999999</v>
       </c>
       <c r="X39">
-        <v>-110.497</v>
+        <v>-19.905999999999999</v>
       </c>
       <c r="Y39">
-        <v>204.58699999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>89.915000000000006</v>
+        <v>8.4749999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>46.195999999999998</v>
+        <v>12.180999999999999</v>
       </c>
       <c r="D40">
-        <v>1108.326</v>
+        <v>769.09</v>
       </c>
       <c r="E40">
-        <v>665.40899999999999</v>
+        <v>384.642</v>
       </c>
       <c r="F40">
-        <v>423.077</v>
+        <v>289.858</v>
       </c>
       <c r="G40">
-        <v>1720.1479999999999</v>
+        <v>897.62300000000005</v>
       </c>
       <c r="H40">
-        <v>2402.377</v>
+        <v>1214.27</v>
       </c>
       <c r="I40">
-        <v>130.65799999999999</v>
+        <v>96.629000000000005</v>
       </c>
       <c r="J40">
-        <v>0.122</v>
+        <v>1.7190000000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>977.16700000000003</v>
+        <v>357.65899999999999</v>
       </c>
       <c r="O40">
-        <v>1245.671</v>
+        <v>385.44900000000001</v>
       </c>
       <c r="P40">
-        <v>280.72699999999998</v>
+        <v>1.837</v>
       </c>
       <c r="Q40">
-        <v>251.571</v>
+        <v>-59.32</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>1156.7059999999999</v>
+        <v>828.82100000000003</v>
       </c>
       <c r="U40">
-        <v>501.48500000000001</v>
+        <v>290.04399999999998</v>
       </c>
       <c r="V40">
-        <v>301.01600000000002</v>
+        <v>36.465000000000003</v>
       </c>
       <c r="W40">
-        <v>-38.44</v>
+        <v>-19.042000000000002</v>
       </c>
       <c r="X40">
-        <v>-38.503</v>
+        <v>-84.45</v>
       </c>
       <c r="Y40">
-        <v>205.28100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>46.195999999999998</v>
+        <v>12.180999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>75.748999999999995</v>
+        <v>20.623000000000001</v>
       </c>
       <c r="D41">
-        <v>1189.8969999999999</v>
+        <v>817.25800000000004</v>
       </c>
       <c r="E41">
-        <v>690.25900000000001</v>
+        <v>427.77</v>
       </c>
       <c r="F41">
-        <v>467.346</v>
+        <v>309.14</v>
       </c>
       <c r="G41">
-        <v>1853.681</v>
+        <v>970.67499999999995</v>
       </c>
       <c r="H41">
-        <v>2563.0920000000001</v>
+        <v>1284.232</v>
       </c>
       <c r="I41">
-        <v>120.13200000000001</v>
+        <v>106.943</v>
       </c>
       <c r="J41">
-        <v>6.2E-2</v>
+        <v>1.6879999999999999</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1052.7850000000001</v>
+        <v>404.72</v>
       </c>
       <c r="O41">
-        <v>1369.0630000000001</v>
+        <v>433.89400000000001</v>
       </c>
       <c r="P41">
-        <v>300.00099999999998</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="Q41">
-        <v>85.515000000000001</v>
+        <v>21.012</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1194.029</v>
+        <v>850.33799999999997</v>
       </c>
       <c r="U41">
-        <v>587</v>
+        <v>311.05599999999998</v>
       </c>
       <c r="V41">
-        <v>138.69900000000001</v>
+        <v>50.488999999999997</v>
       </c>
       <c r="W41">
-        <v>-38.384999999999998</v>
+        <v>-18.978000000000002</v>
       </c>
       <c r="X41">
-        <v>-59.475999999999999</v>
+        <v>-29.533999999999999</v>
       </c>
       <c r="Y41">
-        <v>223.136</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>75.748999999999995</v>
+        <v>20.623999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>24.79</v>
+      </c>
+      <c r="D42">
+        <v>851.572</v>
+      </c>
+      <c r="E42">
+        <v>423.17500000000001</v>
+      </c>
+      <c r="F42">
+        <v>326.90699999999998</v>
+      </c>
+      <c r="G42">
+        <v>971.86</v>
+      </c>
+      <c r="H42">
+        <v>1273.9839999999999</v>
+      </c>
+      <c r="I42">
+        <v>93.69</v>
+      </c>
+      <c r="J42">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>408.46</v>
+      </c>
+      <c r="O42">
+        <v>439.613</v>
+      </c>
+      <c r="P42">
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="Q42">
+        <v>4.0810000000000004</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>10400</v>
+      </c>
+      <c r="T42">
+        <v>834.37099999999998</v>
+      </c>
+      <c r="U42">
+        <v>315.137</v>
+      </c>
+      <c r="V42">
+        <v>74.41</v>
+      </c>
+      <c r="W42">
+        <v>-18.978999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-54.104999999999997</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>26.704999999999998</v>
+      </c>
+      <c r="D43">
+        <v>880.86900000000003</v>
+      </c>
+      <c r="E43">
+        <v>466.54</v>
+      </c>
+      <c r="F43">
+        <v>338.089</v>
+      </c>
+      <c r="G43">
+        <v>984.64099999999996</v>
+      </c>
+      <c r="H43">
+        <v>1290.595</v>
+      </c>
+      <c r="I43">
+        <v>110.80200000000001</v>
+      </c>
+      <c r="J43">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-0.03</v>
+      </c>
+      <c r="N43">
+        <v>420.43799999999999</v>
+      </c>
+      <c r="O43">
+        <v>450.63600000000002</v>
+      </c>
+      <c r="P43">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-33.307000000000002</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>839.95899999999995</v>
+      </c>
+      <c r="U43">
+        <v>281.83</v>
+      </c>
+      <c r="V43">
+        <v>18.952000000000002</v>
+      </c>
+      <c r="W43">
+        <v>-20.294</v>
+      </c>
+      <c r="X43">
+        <v>-41.009</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>26.704999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>36.424999999999997</v>
+      </c>
+      <c r="D44">
+        <v>937.96600000000001</v>
+      </c>
+      <c r="E44">
+        <v>495.38099999999997</v>
+      </c>
+      <c r="F44">
+        <v>372.28800000000001</v>
+      </c>
+      <c r="G44">
+        <v>995.11</v>
+      </c>
+      <c r="H44">
+        <v>1301.7809999999999</v>
+      </c>
+      <c r="I44">
+        <v>110.973</v>
+      </c>
+      <c r="J44">
+        <v>1.6</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>453.22800000000001</v>
+      </c>
+      <c r="O44">
+        <v>485.15100000000001</v>
+      </c>
+      <c r="P44">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-20.759</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>816.63</v>
+      </c>
+      <c r="U44">
+        <v>261.07100000000003</v>
+      </c>
+      <c r="V44">
+        <v>68.930000000000007</v>
+      </c>
+      <c r="W44">
+        <v>-20.013000000000002</v>
+      </c>
+      <c r="X44">
+        <v>-76.266000000000005</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>36.424999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>44.167999999999999</v>
+      </c>
+      <c r="D45">
+        <v>984.66800000000001</v>
+      </c>
+      <c r="E45">
+        <v>516.04700000000003</v>
+      </c>
+      <c r="F45">
+        <v>391.90300000000002</v>
+      </c>
+      <c r="G45">
+        <v>1004.992</v>
+      </c>
+      <c r="H45">
+        <v>1308.5350000000001</v>
+      </c>
+      <c r="I45">
+        <v>120.89</v>
+      </c>
+      <c r="J45">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>483.39800000000002</v>
+      </c>
+      <c r="O45">
+        <v>516.58500000000004</v>
+      </c>
+      <c r="P45">
+        <v>1.6870000000000001</v>
+      </c>
+      <c r="Q45">
+        <v>-18.344999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>791.95</v>
+      </c>
+      <c r="U45">
+        <v>242.726</v>
+      </c>
+      <c r="V45">
+        <v>71.786000000000001</v>
+      </c>
+      <c r="W45">
+        <v>-19.716999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-66.866</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>44.167999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>42.624000000000002</v>
+      </c>
+      <c r="D46">
+        <v>973.47299999999996</v>
+      </c>
+      <c r="E46">
+        <v>493.327</v>
+      </c>
+      <c r="F46">
+        <v>387.322</v>
+      </c>
+      <c r="G46">
+        <v>1006.678</v>
+      </c>
+      <c r="H46">
+        <v>1311.836</v>
+      </c>
+      <c r="I46">
+        <v>117.596</v>
+      </c>
+      <c r="J46">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>473.00099999999998</v>
+      </c>
+      <c r="O46">
+        <v>511.33100000000002</v>
+      </c>
+      <c r="P46">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="Q46">
+        <v>36.61</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>11300</v>
+      </c>
+      <c r="T46">
+        <v>800.505</v>
+      </c>
+      <c r="U46">
+        <v>279.33600000000001</v>
+      </c>
+      <c r="V46">
+        <v>96.647999999999996</v>
+      </c>
+      <c r="W46">
+        <v>-20.279</v>
+      </c>
+      <c r="X46">
+        <v>-41.835999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>42.624000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>48.334000000000003</v>
+      </c>
+      <c r="D47">
+        <v>1015.444</v>
+      </c>
+      <c r="E47">
+        <v>523.45299999999997</v>
+      </c>
+      <c r="F47">
+        <v>402.08300000000003</v>
+      </c>
+      <c r="G47">
+        <v>1006.549</v>
+      </c>
+      <c r="H47">
+        <v>1308.6369999999999</v>
+      </c>
+      <c r="I47">
+        <v>110.247</v>
+      </c>
+      <c r="J47">
+        <v>1.516</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="N47">
+        <v>454.911</v>
+      </c>
+      <c r="O47">
+        <v>492.95699999999999</v>
+      </c>
+      <c r="P47">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="Q47">
+        <v>-34.883000000000003</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>815.68</v>
+      </c>
+      <c r="U47">
+        <v>244.453</v>
+      </c>
+      <c r="V47">
+        <v>23.213999999999999</v>
+      </c>
+      <c r="W47">
+        <v>-21.015999999999998</v>
+      </c>
+      <c r="X47">
+        <v>-48.923000000000002</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>48.334000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>45.329000000000001</v>
+      </c>
+      <c r="D48">
+        <v>1028.383</v>
+      </c>
+      <c r="E48">
+        <v>531.84799999999996</v>
+      </c>
+      <c r="F48">
+        <v>415.303</v>
+      </c>
+      <c r="G48">
+        <v>1040.664</v>
+      </c>
+      <c r="H48">
+        <v>1344.3989999999999</v>
+      </c>
+      <c r="I48">
+        <v>123.706</v>
+      </c>
+      <c r="J48">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>496.31700000000001</v>
+      </c>
+      <c r="O48">
+        <v>535.03899999999999</v>
+      </c>
+      <c r="P48">
+        <v>1.601</v>
+      </c>
+      <c r="Q48">
+        <v>14.125</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>809.36</v>
+      </c>
+      <c r="U48">
+        <v>258.57799999999997</v>
+      </c>
+      <c r="V48">
+        <v>92.072000000000003</v>
+      </c>
+      <c r="W48">
+        <v>-20.858000000000001</v>
+      </c>
+      <c r="X48">
+        <v>-56.1</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>45.329000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>57.66</v>
+      </c>
+      <c r="D49">
+        <v>1033.173</v>
+      </c>
+      <c r="E49">
+        <v>556.59</v>
+      </c>
+      <c r="F49">
+        <v>415.24900000000002</v>
+      </c>
+      <c r="G49">
+        <v>1104.8240000000001</v>
+      </c>
+      <c r="H49">
+        <v>1406.7070000000001</v>
+      </c>
+      <c r="I49">
+        <v>141.90899999999999</v>
+      </c>
+      <c r="J49">
+        <v>1.458</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>532.64200000000005</v>
+      </c>
+      <c r="O49">
+        <v>570.83500000000004</v>
+      </c>
+      <c r="P49">
+        <v>1.575</v>
+      </c>
+      <c r="Q49">
+        <v>30.85</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>835.87199999999996</v>
+      </c>
+      <c r="U49">
+        <v>289.428</v>
+      </c>
+      <c r="V49">
+        <v>75.968000000000004</v>
+      </c>
+      <c r="W49">
+        <v>-20.817</v>
+      </c>
+      <c r="X49">
+        <v>-34.265000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>57.66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>58.619</v>
+      </c>
+      <c r="D50">
+        <v>1034.213</v>
+      </c>
+      <c r="E50">
+        <v>512.85199999999998</v>
+      </c>
+      <c r="F50">
+        <v>416.42500000000001</v>
+      </c>
+      <c r="G50">
+        <v>1064.6849999999999</v>
+      </c>
+      <c r="H50">
+        <v>1381.271</v>
+      </c>
+      <c r="I50">
+        <v>139.87899999999999</v>
+      </c>
+      <c r="J50">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>501.637</v>
+      </c>
+      <c r="O50">
+        <v>539.26</v>
+      </c>
+      <c r="P50">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-1.7929999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>12000</v>
+      </c>
+      <c r="T50">
+        <v>842.01099999999997</v>
+      </c>
+      <c r="U50">
+        <v>287.63499999999999</v>
+      </c>
+      <c r="V50">
+        <v>97.923000000000002</v>
+      </c>
+      <c r="W50">
+        <v>-21.437999999999999</v>
+      </c>
+      <c r="X50">
+        <v>-70.328000000000003</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>58.619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>55.863</v>
+      </c>
+      <c r="D51">
+        <v>1023.684</v>
+      </c>
+      <c r="E51">
+        <v>547.5</v>
+      </c>
+      <c r="F51">
+        <v>410.29</v>
+      </c>
+      <c r="G51">
+        <v>1076.4010000000001</v>
+      </c>
+      <c r="H51">
+        <v>1387.7449999999999</v>
+      </c>
+      <c r="I51">
+        <v>127.773</v>
+      </c>
+      <c r="J51">
+        <v>1.397</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-2.6429999999999998</v>
+      </c>
+      <c r="N51">
+        <v>499.08100000000002</v>
+      </c>
+      <c r="O51">
+        <v>533.221</v>
+      </c>
+      <c r="P51">
+        <v>3.2080000000000002</v>
+      </c>
+      <c r="Q51">
+        <v>-62.283999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>854.524</v>
+      </c>
+      <c r="U51">
+        <v>225.351</v>
+      </c>
+      <c r="V51">
+        <v>27.885000000000002</v>
+      </c>
+      <c r="W51">
+        <v>-22.021000000000001</v>
+      </c>
+      <c r="X51">
+        <v>-49.406999999999996</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>55.863</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>63.088999999999999</v>
+      </c>
+      <c r="D52">
+        <v>1063.2280000000001</v>
+      </c>
+      <c r="E52">
+        <v>557.31100000000004</v>
+      </c>
+      <c r="F52">
+        <v>432.108</v>
+      </c>
+      <c r="G52">
+        <v>1119.0989999999999</v>
+      </c>
+      <c r="H52">
+        <v>1428.3240000000001</v>
+      </c>
+      <c r="I52">
+        <v>127.483</v>
+      </c>
+      <c r="J52">
+        <v>1.365</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>534.89499999999998</v>
+      </c>
+      <c r="O52">
+        <v>566.57299999999998</v>
+      </c>
+      <c r="P52">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="Q52">
+        <v>21.62</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>861.75099999999998</v>
+      </c>
+      <c r="U52">
+        <v>246.971</v>
+      </c>
+      <c r="V52">
+        <v>102.05</v>
+      </c>
+      <c r="W52">
+        <v>-21.864999999999998</v>
+      </c>
+      <c r="X52">
+        <v>-61.572000000000003</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>63.088999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>66.358000000000004</v>
+      </c>
+      <c r="D53">
+        <v>1075.1189999999999</v>
+      </c>
+      <c r="E53">
+        <v>566.077</v>
+      </c>
+      <c r="F53">
+        <v>437.47800000000001</v>
+      </c>
+      <c r="G53">
+        <v>1166.2139999999999</v>
+      </c>
+      <c r="H53">
+        <v>1474.704</v>
+      </c>
+      <c r="I53">
+        <v>144.06</v>
+      </c>
+      <c r="J53">
+        <v>1.333</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>551.928</v>
+      </c>
+      <c r="O53">
+        <v>575.91999999999996</v>
+      </c>
+      <c r="P53">
+        <v>1.458</v>
+      </c>
+      <c r="Q53">
+        <v>32.776000000000003</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>898.78399999999999</v>
+      </c>
+      <c r="U53">
+        <v>279.74700000000001</v>
+      </c>
+      <c r="V53">
+        <v>81.122</v>
+      </c>
+      <c r="W53">
+        <v>-21.725999999999999</v>
+      </c>
+      <c r="X53">
+        <v>-34.386000000000003</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>66.358000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>66.885000000000005</v>
+      </c>
+      <c r="D54">
+        <v>1083.864</v>
+      </c>
+      <c r="E54">
+        <v>551.90499999999997</v>
+      </c>
+      <c r="F54">
+        <v>443.21600000000001</v>
+      </c>
+      <c r="G54">
+        <v>1172.528</v>
+      </c>
+      <c r="H54">
+        <v>1490.271</v>
+      </c>
+      <c r="I54">
+        <v>139.68299999999999</v>
+      </c>
+      <c r="J54">
+        <v>1.3</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>535.85299999999995</v>
+      </c>
+      <c r="O54">
+        <v>570.62800000000004</v>
+      </c>
+      <c r="P54">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="Q54">
+        <v>-3.9830000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>13000</v>
+      </c>
+      <c r="T54">
+        <v>919.64300000000003</v>
+      </c>
+      <c r="U54">
+        <v>275.76400000000001</v>
+      </c>
+      <c r="V54">
+        <v>98.16</v>
+      </c>
+      <c r="W54">
+        <v>-23.574999999999999</v>
+      </c>
+      <c r="X54">
+        <v>-74.905000000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>66.885000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>61.551000000000002</v>
+      </c>
+      <c r="D55">
+        <v>1084.3420000000001</v>
+      </c>
+      <c r="E55">
+        <v>587.24900000000002</v>
+      </c>
+      <c r="F55">
+        <v>438.495</v>
+      </c>
+      <c r="G55">
+        <v>1187.317</v>
+      </c>
+      <c r="H55">
+        <v>1503.3309999999999</v>
+      </c>
+      <c r="I55">
+        <v>137.93600000000001</v>
+      </c>
+      <c r="J55">
+        <v>1.266</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="N55">
+        <v>537.54600000000005</v>
+      </c>
+      <c r="O55">
+        <v>571.18499999999995</v>
+      </c>
+      <c r="P55">
+        <v>1.397</v>
+      </c>
+      <c r="Q55">
+        <v>-8.0269999999999992</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>932.14599999999996</v>
+      </c>
+      <c r="U55">
+        <v>267.73700000000002</v>
+      </c>
+      <c r="V55">
+        <v>59.225000000000001</v>
+      </c>
+      <c r="W55">
+        <v>-24.393999999999998</v>
+      </c>
+      <c r="X55">
+        <v>-50.067</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>61.551000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>75.14</v>
+      </c>
+      <c r="D56">
+        <v>1164.914</v>
+      </c>
+      <c r="E56">
+        <v>617.20000000000005</v>
+      </c>
+      <c r="F56">
+        <v>478.44400000000002</v>
+      </c>
+      <c r="G56">
+        <v>1273.9190000000001</v>
+      </c>
+      <c r="H56">
+        <v>1588.4449999999999</v>
+      </c>
+      <c r="I56">
+        <v>128.50700000000001</v>
+      </c>
+      <c r="J56">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>580.89</v>
+      </c>
+      <c r="O56">
+        <v>612.88400000000001</v>
+      </c>
+      <c r="P56">
+        <v>1.365</v>
+      </c>
+      <c r="Q56">
+        <v>40.040999999999997</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>975.56100000000004</v>
+      </c>
+      <c r="U56">
+        <v>307.77800000000002</v>
+      </c>
+      <c r="V56">
+        <v>104.914</v>
+      </c>
+      <c r="W56">
+        <v>-24.26</v>
+      </c>
+      <c r="X56">
+        <v>-51.921999999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>75.14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>85.183999999999997</v>
+      </c>
+      <c r="D57">
+        <v>1224.308</v>
+      </c>
+      <c r="E57">
+        <v>657.10500000000002</v>
+      </c>
+      <c r="F57">
+        <v>505.22</v>
+      </c>
+      <c r="G57">
+        <v>1314.5050000000001</v>
+      </c>
+      <c r="H57">
+        <v>1627.0129999999999</v>
+      </c>
+      <c r="I57">
+        <v>142.661</v>
+      </c>
+      <c r="J57">
+        <v>1.196</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>623.90499999999997</v>
+      </c>
+      <c r="O57">
+        <v>654.42999999999995</v>
+      </c>
+      <c r="P57">
+        <v>1.333</v>
+      </c>
+      <c r="Q57">
+        <v>-16.902000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>972.58299999999997</v>
+      </c>
+      <c r="U57">
+        <v>290.87599999999998</v>
+      </c>
+      <c r="V57">
+        <v>93.680999999999997</v>
+      </c>
+      <c r="W57">
+        <v>-24.097999999999999</v>
+      </c>
+      <c r="X57">
+        <v>-81.206999999999994</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>85.183999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>84.052999999999997</v>
+      </c>
+      <c r="D58">
+        <v>1221.45</v>
+      </c>
+      <c r="E58">
+        <v>657.67600000000004</v>
+      </c>
+      <c r="F58">
+        <v>500.75700000000001</v>
+      </c>
+      <c r="G58">
+        <v>1323.2829999999999</v>
+      </c>
+      <c r="H58">
+        <v>1647.2670000000001</v>
+      </c>
+      <c r="I58">
+        <v>175.107</v>
+      </c>
+      <c r="J58">
+        <v>1.159</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>623.36199999999997</v>
+      </c>
+      <c r="O58">
+        <v>667.40899999999999</v>
+      </c>
+      <c r="P58">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="Q58">
+        <v>-3.7570000000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>14000</v>
+      </c>
+      <c r="T58">
+        <v>979.85799999999995</v>
+      </c>
+      <c r="U58">
+        <v>287.11900000000003</v>
+      </c>
+      <c r="V58">
+        <v>82.878</v>
+      </c>
+      <c r="W58">
+        <v>-24.852</v>
+      </c>
+      <c r="X58">
+        <v>-46.859000000000002</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>84.052999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>77.921999999999997</v>
+      </c>
+      <c r="D59">
+        <v>1205.5630000000001</v>
+      </c>
+      <c r="E59">
+        <v>661.25099999999998</v>
+      </c>
+      <c r="F59">
+        <v>494.08699999999999</v>
+      </c>
+      <c r="G59">
+        <v>1316.289</v>
+      </c>
+      <c r="H59">
+        <v>1637.2860000000001</v>
+      </c>
+      <c r="I59">
+        <v>141.702</v>
+      </c>
+      <c r="J59">
+        <v>1.123</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="N59">
+        <v>607.70500000000004</v>
+      </c>
+      <c r="O59">
+        <v>652.66300000000001</v>
+      </c>
+      <c r="P59">
+        <v>1.266</v>
+      </c>
+      <c r="Q59">
+        <v>-26.234000000000002</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>984.62300000000005</v>
+      </c>
+      <c r="U59">
+        <v>260.88499999999999</v>
+      </c>
+      <c r="V59">
+        <v>84.48</v>
+      </c>
+      <c r="W59">
+        <v>-27.375</v>
+      </c>
+      <c r="X59">
+        <v>-81.236000000000004</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>77.921999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>89.706000000000003</v>
+      </c>
+      <c r="D60">
+        <v>1272.058</v>
+      </c>
+      <c r="E60">
+        <v>687.029</v>
+      </c>
+      <c r="F60">
+        <v>530.50199999999995</v>
+      </c>
+      <c r="G60">
+        <v>1397.434</v>
+      </c>
+      <c r="H60">
+        <v>1723.2</v>
+      </c>
+      <c r="I60">
+        <v>152.9</v>
+      </c>
+      <c r="J60">
+        <v>1.085</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>663.79899999999998</v>
+      </c>
+      <c r="O60">
+        <v>708.52499999999998</v>
+      </c>
+      <c r="P60">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="Q60">
+        <v>52.246000000000002</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1014.675</v>
+      </c>
+      <c r="U60">
+        <v>313.13099999999997</v>
+      </c>
+      <c r="V60">
+        <v>141.91499999999999</v>
+      </c>
+      <c r="W60">
+        <v>-26.506</v>
+      </c>
+      <c r="X60">
+        <v>-70.968999999999994</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>89.706000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>96.724999999999994</v>
+      </c>
+      <c r="D61">
+        <v>1312.7180000000001</v>
+      </c>
+      <c r="E61">
+        <v>731.57399999999996</v>
+      </c>
+      <c r="F61">
+        <v>549.80100000000004</v>
+      </c>
+      <c r="G61">
+        <v>1383.3720000000001</v>
+      </c>
+      <c r="H61">
+        <v>1715.2719999999999</v>
+      </c>
+      <c r="I61">
+        <v>134.99100000000001</v>
+      </c>
+      <c r="J61">
+        <v>1.046</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>664.16899999999998</v>
+      </c>
+      <c r="O61">
+        <v>708.79600000000005</v>
+      </c>
+      <c r="P61">
+        <v>1.196</v>
+      </c>
+      <c r="Q61">
+        <v>-61.313000000000002</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1006.476</v>
+      </c>
+      <c r="U61">
+        <v>251.81800000000001</v>
+      </c>
+      <c r="V61">
+        <v>93.846000000000004</v>
+      </c>
+      <c r="W61">
+        <v>-26.288</v>
+      </c>
+      <c r="X61">
+        <v>-123.121</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>96.724999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>93.442999999999998</v>
+      </c>
+      <c r="D62">
+        <v>1304.5940000000001</v>
+      </c>
+      <c r="E62">
+        <v>704.64</v>
+      </c>
+      <c r="F62">
+        <v>540.08100000000002</v>
+      </c>
+      <c r="G62">
+        <v>1197.9970000000001</v>
+      </c>
+      <c r="H62">
+        <v>1671.0440000000001</v>
+      </c>
+      <c r="I62">
+        <v>148.108</v>
+      </c>
+      <c r="J62">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>655.54899999999998</v>
+      </c>
+      <c r="O62">
+        <v>667.26300000000003</v>
+      </c>
+      <c r="P62">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Q62">
+        <v>-27.241</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>16100</v>
+      </c>
+      <c r="T62">
+        <v>1003.7809999999999</v>
+      </c>
+      <c r="U62">
+        <v>224.577</v>
+      </c>
+      <c r="V62">
+        <v>117.995</v>
+      </c>
+      <c r="W62">
+        <v>-27.391999999999999</v>
+      </c>
+      <c r="X62">
+        <v>-93.221999999999994</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>93.442999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>83.415999999999997</v>
+      </c>
+      <c r="D63">
+        <v>1302.625</v>
+      </c>
+      <c r="E63">
+        <v>734.37800000000004</v>
+      </c>
+      <c r="F63">
+        <v>531.97199999999998</v>
+      </c>
+      <c r="G63">
+        <v>1380.201</v>
+      </c>
+      <c r="H63">
+        <v>1744.864</v>
+      </c>
+      <c r="I63">
+        <v>139.02600000000001</v>
+      </c>
+      <c r="J63">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="N63">
+        <v>655.31700000000001</v>
+      </c>
+      <c r="O63">
+        <v>699.91099999999994</v>
+      </c>
+      <c r="P63">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="Q63">
+        <v>-10.458</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1044.953</v>
+      </c>
+      <c r="U63">
+        <v>214.119</v>
+      </c>
+      <c r="V63">
+        <v>78.486000000000004</v>
+      </c>
+      <c r="W63">
+        <v>-28.748000000000001</v>
+      </c>
+      <c r="X63">
+        <v>-68.513000000000005</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>83.415999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>91.616</v>
+      </c>
+      <c r="D64">
+        <v>1344.16</v>
+      </c>
+      <c r="E64">
+        <v>732.19299999999998</v>
+      </c>
+      <c r="F64">
+        <v>556.99300000000005</v>
+      </c>
+      <c r="G64">
+        <v>1408.1120000000001</v>
+      </c>
+      <c r="H64">
+        <v>1783.008</v>
+      </c>
+      <c r="I64">
+        <v>151.179</v>
+      </c>
+      <c r="J64">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>668.17899999999997</v>
+      </c>
+      <c r="O64">
+        <v>713.5</v>
+      </c>
+      <c r="P64">
+        <v>1.085</v>
+      </c>
+      <c r="Q64">
+        <v>24.594999999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1069.508</v>
+      </c>
+      <c r="U64">
+        <v>238.714</v>
+      </c>
+      <c r="V64">
+        <v>128.708</v>
+      </c>
+      <c r="W64">
+        <v>-29.146999999999998</v>
+      </c>
+      <c r="X64">
+        <v>-70.120999999999995</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>91.616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>90.569000000000003</v>
+      </c>
+      <c r="D65">
+        <v>1338.5409999999999</v>
+      </c>
+      <c r="E65">
+        <v>742.82399999999996</v>
+      </c>
+      <c r="F65">
+        <v>552.50900000000001</v>
+      </c>
+      <c r="G65">
+        <v>1493.5730000000001</v>
+      </c>
+      <c r="H65">
+        <v>1871.981</v>
+      </c>
+      <c r="I65">
+        <v>156.30099999999999</v>
+      </c>
+      <c r="J65">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>729.67600000000004</v>
+      </c>
+      <c r="O65">
+        <v>777.05100000000004</v>
+      </c>
+      <c r="P65">
+        <v>1.046</v>
+      </c>
+      <c r="Q65">
+        <v>53.737000000000002</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1094.93</v>
+      </c>
+      <c r="U65">
+        <v>292.45100000000002</v>
+      </c>
+      <c r="V65">
+        <v>153.226</v>
+      </c>
+      <c r="W65">
+        <v>-28.067</v>
+      </c>
+      <c r="X65">
+        <v>-72.733000000000004</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>90.569000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>77.787999999999997</v>
+      </c>
+      <c r="D66">
+        <v>1265.0730000000001</v>
+      </c>
+      <c r="E66">
+        <v>703.22799999999995</v>
+      </c>
+      <c r="F66">
+        <v>519.202</v>
+      </c>
+      <c r="G66">
+        <v>1284.2339999999999</v>
+      </c>
+      <c r="H66">
+        <v>1777.971</v>
+      </c>
+      <c r="I66">
+        <v>135.54</v>
+      </c>
+      <c r="J66">
+        <v>0.84</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>679.89599999999996</v>
+      </c>
+      <c r="O66">
+        <v>691.37199999999996</v>
+      </c>
+      <c r="P66">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-32.25</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>16400</v>
+      </c>
+      <c r="T66">
+        <v>1086.5989999999999</v>
+      </c>
+      <c r="U66">
+        <v>260.20100000000002</v>
+      </c>
+      <c r="V66">
+        <v>81.661000000000001</v>
+      </c>
+      <c r="W66">
+        <v>-28.202000000000002</v>
+      </c>
+      <c r="X66">
+        <v>-76.936999999999998</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>77.787999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>78.521000000000001</v>
+      </c>
+      <c r="D67">
+        <v>1287.3699999999999</v>
+      </c>
+      <c r="E67">
+        <v>700.41899999999998</v>
+      </c>
+      <c r="F67">
+        <v>525.82799999999997</v>
+      </c>
+      <c r="G67">
+        <v>1295.922</v>
+      </c>
+      <c r="H67">
+        <v>1775.21</v>
+      </c>
+      <c r="I67">
+        <v>117.30800000000001</v>
+      </c>
+      <c r="J67">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="N67">
+        <v>682.6</v>
+      </c>
+      <c r="O67">
+        <v>694.26700000000005</v>
+      </c>
+      <c r="P67">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="Q67">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1080.943</v>
+      </c>
+      <c r="U67">
+        <v>260.14299999999997</v>
+      </c>
+      <c r="V67">
+        <v>123.5</v>
+      </c>
+      <c r="W67">
+        <v>-30.597000000000001</v>
+      </c>
+      <c r="X67">
+        <v>-111.325</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>78.521000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>80.316000000000003</v>
+      </c>
+      <c r="D68">
+        <v>1308.4280000000001</v>
+      </c>
+      <c r="E68">
+        <v>708.49300000000005</v>
+      </c>
+      <c r="F68">
+        <v>538.43799999999999</v>
+      </c>
+      <c r="G68">
+        <v>1347.106</v>
+      </c>
+      <c r="H68">
+        <v>1836.1379999999999</v>
+      </c>
+      <c r="I68">
+        <v>127.664</v>
+      </c>
+      <c r="J68">
+        <v>0.75</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>719.44299999999998</v>
+      </c>
+      <c r="O68">
+        <v>731.75400000000002</v>
+      </c>
+      <c r="P68">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="Q68">
+        <v>37.655000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1104.384</v>
+      </c>
+      <c r="U68">
+        <v>297.798</v>
+      </c>
+      <c r="V68">
+        <v>134.56</v>
+      </c>
+      <c r="W68">
+        <v>-30.850999999999999</v>
+      </c>
+      <c r="X68">
+        <v>-79.447999999999993</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>80.316000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>84.7</v>
+      </c>
+      <c r="D69">
+        <v>1324.7090000000001</v>
+      </c>
+      <c r="E69">
+        <v>737.90099999999995</v>
+      </c>
+      <c r="F69">
+        <v>546.4</v>
+      </c>
+      <c r="G69">
+        <v>1437.3230000000001</v>
+      </c>
+      <c r="H69">
+        <v>1932.8520000000001</v>
+      </c>
+      <c r="I69">
+        <v>132.34299999999999</v>
+      </c>
+      <c r="J69">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>778.34799999999996</v>
+      </c>
+      <c r="O69">
+        <v>793.03399999999999</v>
+      </c>
+      <c r="P69">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="Q69">
+        <v>50.537999999999997</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1139.818</v>
+      </c>
+      <c r="U69">
+        <v>348.33600000000001</v>
+      </c>
+      <c r="V69">
+        <v>130.40299999999999</v>
+      </c>
+      <c r="W69">
+        <v>-29.63</v>
+      </c>
+      <c r="X69">
+        <v>-67.771000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>47.046999999999997</v>
+      </c>
+      <c r="D70">
+        <v>1346.2819999999999</v>
+      </c>
+      <c r="E70">
+        <v>732.40499999999997</v>
+      </c>
+      <c r="F70">
+        <v>553.14599999999996</v>
+      </c>
+      <c r="G70">
+        <v>1431.8689999999999</v>
+      </c>
+      <c r="H70">
+        <v>1867.454</v>
+      </c>
+      <c r="I70">
+        <v>117.934</v>
+      </c>
+      <c r="J70">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>747.89599999999996</v>
+      </c>
+      <c r="O70">
+        <v>762.18899999999996</v>
+      </c>
+      <c r="P70">
+        <v>0.84</v>
+      </c>
+      <c r="Q70">
+        <v>-53.582999999999998</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>17200</v>
+      </c>
+      <c r="T70">
+        <v>1105.2650000000001</v>
+      </c>
+      <c r="U70">
+        <v>294.75299999999999</v>
+      </c>
+      <c r="V70">
+        <v>64.528000000000006</v>
+      </c>
+      <c r="W70">
+        <v>-29.922000000000001</v>
+      </c>
+      <c r="X70">
+        <v>-94.346999999999994</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>47.046999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>96.167000000000002</v>
+      </c>
+      <c r="D71">
+        <v>1395.3330000000001</v>
+      </c>
+      <c r="E71">
+        <v>784.88900000000001</v>
+      </c>
+      <c r="F71">
+        <v>572.36599999999999</v>
+      </c>
+      <c r="G71">
+        <v>1468.4559999999999</v>
+      </c>
+      <c r="H71">
+        <v>1893.86</v>
+      </c>
+      <c r="I71">
+        <v>137.23699999999999</v>
+      </c>
+      <c r="J71">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="N71">
+        <v>764.44</v>
+      </c>
+      <c r="O71">
+        <v>779.06299999999999</v>
+      </c>
+      <c r="P71">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="Q71">
+        <v>-2.766</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1114.797</v>
+      </c>
+      <c r="U71">
+        <v>291.98700000000002</v>
+      </c>
+      <c r="V71">
+        <v>116.218</v>
+      </c>
+      <c r="W71">
+        <v>-34.918999999999997</v>
+      </c>
+      <c r="X71">
+        <v>-103.452</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>96.167000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>109.315</v>
+      </c>
+      <c r="D72">
+        <v>1457.0540000000001</v>
+      </c>
+      <c r="E72">
+        <v>801.875</v>
+      </c>
+      <c r="F72">
+        <v>607.11800000000005</v>
+      </c>
+      <c r="G72">
+        <v>1504.1289999999999</v>
+      </c>
+      <c r="H72">
+        <v>1933.5830000000001</v>
+      </c>
+      <c r="I72">
+        <v>152.49100000000001</v>
+      </c>
+      <c r="J72">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>808.87599999999998</v>
+      </c>
+      <c r="O72">
+        <v>824.08500000000004</v>
+      </c>
+      <c r="P72">
+        <v>0.75</v>
+      </c>
+      <c r="Q72">
+        <v>16.669</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>1109.498</v>
+      </c>
+      <c r="U72">
+        <v>308.65600000000001</v>
+      </c>
+      <c r="V72">
+        <v>147.74600000000001</v>
+      </c>
+      <c r="W72">
+        <v>-34.066000000000003</v>
+      </c>
+      <c r="X72">
+        <v>-103.625</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>109.315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>115.242</v>
+      </c>
+      <c r="D73">
+        <v>1466.2260000000001</v>
+      </c>
+      <c r="E73">
+        <v>834.34699999999998</v>
+      </c>
+      <c r="F73">
+        <v>610.46799999999996</v>
+      </c>
+      <c r="G73">
+        <v>1612.4</v>
+      </c>
+      <c r="H73">
+        <v>2034.9069999999999</v>
+      </c>
+      <c r="I73">
+        <v>158.26499999999999</v>
+      </c>
+      <c r="J73">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>896.28</v>
+      </c>
+      <c r="O73">
+        <v>915.66499999999996</v>
+      </c>
+      <c r="P73">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="Q73">
+        <v>53.084000000000003</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1119.242</v>
+      </c>
+      <c r="U73">
+        <v>361.74</v>
+      </c>
+      <c r="V73">
+        <v>185.31299999999999</v>
+      </c>
+      <c r="W73">
+        <v>-33.710999999999999</v>
+      </c>
+      <c r="X73">
+        <v>-112.15600000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>115.242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>113.56399999999999</v>
+      </c>
+      <c r="D74">
+        <v>1481.6579999999999</v>
+      </c>
+      <c r="E74">
+        <v>794.44600000000003</v>
+      </c>
+      <c r="F74">
+        <v>620.06200000000001</v>
+      </c>
+      <c r="G74">
+        <v>1473.61</v>
+      </c>
+      <c r="H74">
+        <v>1903.097</v>
+      </c>
+      <c r="I74">
+        <v>155.03399999999999</v>
+      </c>
+      <c r="J74">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>819.53599999999994</v>
+      </c>
+      <c r="O74">
+        <v>839.899</v>
+      </c>
+      <c r="P74">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="Q74">
+        <v>-85.161000000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>18900</v>
+      </c>
+      <c r="T74">
+        <v>1063.1980000000001</v>
+      </c>
+      <c r="U74">
+        <v>276.57900000000001</v>
+      </c>
+      <c r="V74">
+        <v>123.045</v>
+      </c>
+      <c r="W74">
+        <v>-33.726999999999997</v>
+      </c>
+      <c r="X74">
+        <v>-170.88200000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>113.56399999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>109.798</v>
+      </c>
+      <c r="D75">
+        <v>1468.53</v>
+      </c>
+      <c r="E75">
+        <v>826.36599999999999</v>
+      </c>
+      <c r="F75">
+        <v>607.58799999999997</v>
+      </c>
+      <c r="G75">
+        <v>1532.0170000000001</v>
+      </c>
+      <c r="H75">
+        <v>2204.607</v>
+      </c>
+      <c r="I75">
+        <v>120.91800000000001</v>
+      </c>
+      <c r="J75">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="N75">
+        <v>900.73</v>
+      </c>
+      <c r="O75">
+        <v>1127.578</v>
+      </c>
+      <c r="P75">
+        <v>277.286</v>
+      </c>
+      <c r="Q75">
+        <v>-6.9340000000000002</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1077.029</v>
+      </c>
+      <c r="U75">
+        <v>269.64499999999998</v>
+      </c>
+      <c r="V75">
+        <v>127.07899999999999</v>
+      </c>
+      <c r="W75">
+        <v>-37.887</v>
+      </c>
+      <c r="X75">
+        <v>-110.279</v>
+      </c>
+      <c r="Y75">
+        <v>205.613</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>109.798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>114.61199999999999</v>
+      </c>
+      <c r="D76">
+        <v>1516.385</v>
+      </c>
+      <c r="E76">
+        <v>842.29399999999998</v>
+      </c>
+      <c r="F76">
+        <v>637.54100000000005</v>
+      </c>
+      <c r="G76">
+        <v>1564.9190000000001</v>
+      </c>
+      <c r="H76">
+        <v>2239.4189999999999</v>
+      </c>
+      <c r="I76">
+        <v>117.60899999999999</v>
+      </c>
+      <c r="J76">
+        <v>0.35</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>909.51</v>
+      </c>
+      <c r="O76">
+        <v>1130.192</v>
+      </c>
+      <c r="P76">
+        <v>270.57100000000003</v>
+      </c>
+      <c r="Q76">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1109.2270000000001</v>
+      </c>
+      <c r="U76">
+        <v>269.44</v>
+      </c>
+      <c r="V76">
+        <v>120.748</v>
+      </c>
+      <c r="W76">
+        <v>-36.073</v>
+      </c>
+      <c r="X76">
+        <v>-97.396000000000001</v>
+      </c>
+      <c r="Y76">
+        <v>199.83699999999999</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>114.61199999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>117.181</v>
+      </c>
+      <c r="D77">
+        <v>1552.1320000000001</v>
+      </c>
+      <c r="E77">
+        <v>852.84299999999996</v>
+      </c>
+      <c r="F77">
+        <v>646.27800000000002</v>
+      </c>
+      <c r="G77">
+        <v>1631.183</v>
+      </c>
+      <c r="H77">
+        <v>2311.5700000000002</v>
+      </c>
+      <c r="I77">
+        <v>117.203</v>
+      </c>
+      <c r="J77">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>977.44</v>
+      </c>
+      <c r="O77">
+        <v>1199.74</v>
+      </c>
+      <c r="P77">
+        <v>272.12599999999998</v>
+      </c>
+      <c r="Q77">
+        <v>43.301000000000002</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1111.83</v>
+      </c>
+      <c r="U77">
+        <v>312.74099999999999</v>
+      </c>
+      <c r="V77">
+        <v>191.179</v>
+      </c>
+      <c r="W77">
+        <v>-35.741999999999997</v>
+      </c>
+      <c r="X77">
+        <v>-116.22199999999999</v>
+      </c>
+      <c r="Y77">
+        <v>200.76400000000001</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>117.181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>112.842</v>
+      </c>
+      <c r="D78">
+        <v>1537.385</v>
+      </c>
+      <c r="E78">
+        <v>832.79700000000003</v>
+      </c>
+      <c r="F78">
+        <v>636.86099999999999</v>
+      </c>
+      <c r="G78">
+        <v>1628.8489999999999</v>
+      </c>
+      <c r="H78">
+        <v>2311.4079999999999</v>
+      </c>
+      <c r="I78">
+        <v>110.893</v>
+      </c>
+      <c r="J78">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>940.69200000000001</v>
+      </c>
+      <c r="O78">
+        <v>1167.7249999999999</v>
+      </c>
+      <c r="P78">
+        <v>273.82600000000002</v>
+      </c>
+      <c r="Q78">
+        <v>-42.262999999999998</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>16000</v>
+      </c>
+      <c r="T78">
+        <v>1143.683</v>
+      </c>
+      <c r="U78">
+        <v>270.47800000000001</v>
+      </c>
+      <c r="V78">
+        <v>80.623000000000005</v>
+      </c>
+      <c r="W78">
+        <v>-35.929000000000002</v>
+      </c>
+      <c r="X78">
+        <v>-99.468999999999994</v>
+      </c>
+      <c r="Y78">
+        <v>201.96100000000001</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>112.842</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>89.915000000000006</v>
+      </c>
+      <c r="D79">
+        <v>1506.691</v>
+      </c>
+      <c r="E79">
+        <v>853.529</v>
+      </c>
+      <c r="F79">
+        <v>610.71699999999998</v>
+      </c>
+      <c r="G79">
+        <v>1606.655</v>
+      </c>
+      <c r="H79">
+        <v>2274.8519999999999</v>
+      </c>
+      <c r="I79">
+        <v>122.15600000000001</v>
+      </c>
+      <c r="J79">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="N79">
+        <v>913.35400000000004</v>
+      </c>
+      <c r="O79">
+        <v>1144.9269999999999</v>
+      </c>
+      <c r="P79">
+        <v>276.29000000000002</v>
+      </c>
+      <c r="Q79">
+        <v>-20.564</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1129.925</v>
+      </c>
+      <c r="U79">
+        <v>249.91399999999999</v>
+      </c>
+      <c r="V79">
+        <v>124.926</v>
+      </c>
+      <c r="W79">
+        <v>-40.475999999999999</v>
+      </c>
+      <c r="X79">
+        <v>-110.497</v>
+      </c>
+      <c r="Y79">
+        <v>204.58699999999999</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>89.915000000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>46.195999999999998</v>
+      </c>
+      <c r="D80">
+        <v>1108.326</v>
+      </c>
+      <c r="E80">
+        <v>665.40899999999999</v>
+      </c>
+      <c r="F80">
+        <v>423.077</v>
+      </c>
+      <c r="G80">
+        <v>1720.1479999999999</v>
+      </c>
+      <c r="H80">
+        <v>2402.377</v>
+      </c>
+      <c r="I80">
+        <v>130.65799999999999</v>
+      </c>
+      <c r="J80">
+        <v>0.122</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>977.16700000000003</v>
+      </c>
+      <c r="O80">
+        <v>1245.671</v>
+      </c>
+      <c r="P80">
+        <v>280.72699999999998</v>
+      </c>
+      <c r="Q80">
+        <v>251.571</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>1156.7059999999999</v>
+      </c>
+      <c r="U80">
+        <v>501.48500000000001</v>
+      </c>
+      <c r="V80">
+        <v>301.01600000000002</v>
+      </c>
+      <c r="W80">
+        <v>-38.44</v>
+      </c>
+      <c r="X80">
+        <v>-38.503</v>
+      </c>
+      <c r="Y80">
+        <v>205.28100000000001</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>46.195999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>75.748999999999995</v>
+      </c>
+      <c r="D81">
+        <v>1189.8969999999999</v>
+      </c>
+      <c r="E81">
+        <v>690.25900000000001</v>
+      </c>
+      <c r="F81">
+        <v>467.346</v>
+      </c>
+      <c r="G81">
+        <v>1853.681</v>
+      </c>
+      <c r="H81">
+        <v>2563.0920000000001</v>
+      </c>
+      <c r="I81">
+        <v>120.13200000000001</v>
+      </c>
+      <c r="J81">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1052.7850000000001</v>
+      </c>
+      <c r="O81">
+        <v>1369.0630000000001</v>
+      </c>
+      <c r="P81">
+        <v>300.00099999999998</v>
+      </c>
+      <c r="Q81">
+        <v>85.515000000000001</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1194.029</v>
+      </c>
+      <c r="U81">
+        <v>587</v>
+      </c>
+      <c r="V81">
+        <v>138.69900000000001</v>
+      </c>
+      <c r="W81">
+        <v>-38.384999999999998</v>
+      </c>
+      <c r="X81">
+        <v>-59.475999999999999</v>
+      </c>
+      <c r="Y81">
+        <v>223.136</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>75.748999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>94.415999999999997</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1304.086</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>714.16300000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>514.327</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1842.7380000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>2557.424</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>112.518</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1046.626</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1352.135</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>302.71199999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-12.574</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>13000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>1205.289</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>574.42600000000004</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>31.887</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-38.634</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-106.849</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>223.869</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>94.415999999999997</v>
       </c>
     </row>
